--- a/Tables/aq_hmf_metrics_outlet_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>aq</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>annual_hmf</t>
@@ -527,184 +532,199 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dec_hmf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1384155182956977</v>
+        <v>0.7948353082106304</v>
       </c>
       <c r="C2" t="n">
-        <v>22.30315984101966</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28861861520654</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02702755162839983</v>
+        <v>0.7730666110289665</v>
       </c>
       <c r="F2" t="n">
-        <v>84.44444444444444</v>
+        <v>93.333</v>
       </c>
       <c r="G2" t="n">
-        <v>5.162524336122537</v>
+        <v>6.434782608695652</v>
       </c>
       <c r="H2" t="n">
-        <v>223.5949240550665</v>
+        <v>239</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004496167025929836</v>
+        <v>0.1780617682553472</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01382340231899053</v>
+        <v>0.4121011850086656</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06085150530023079</v>
+        <v>0.5503327033712256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01515837263203682</v>
+        <v>0.2311964959685875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04984955784021512</v>
+        <v>0.2804509548654912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05516140104404009</v>
+        <v>0.2049985650194496</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05150785753798682</v>
+        <v>0.1213746128489664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01701712014056623</v>
+        <v>0.0788531298553152</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01524896621347047</v>
+        <v>0.044711168107536</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01594843802788089</v>
+        <v>0.1163591329791744</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01997325829978955</v>
+        <v>0.11376576290016</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01072090844476284</v>
+        <v>0.187897001951232</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3586537138373592</v>
+        <v>0.2535544134210388</v>
       </c>
       <c r="C3" t="n">
-        <v>22.60694833163073</v>
+        <v>41.49706945630859</v>
       </c>
       <c r="D3" t="n">
-        <v>8.859673158172889</v>
+        <v>22.56299773007623</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2283285814934422</v>
+        <v>0.1562402638884014</v>
       </c>
       <c r="F3" t="n">
-        <v>83.33333333333333</v>
+        <v>56.58733333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>4.42226079862196</v>
+        <v>3.620940251375034</v>
       </c>
       <c r="H3" t="n">
-        <v>152.5994682403031</v>
+        <v>198.2712221353526</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1255977654724005</v>
+        <v>0.08255778891577728</v>
       </c>
       <c r="J3" t="n">
-        <v>0.10502817008801</v>
+        <v>0.125099537062961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1260645601908378</v>
+        <v>0.1384898415243828</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1948900946647769</v>
+        <v>0.07902944510519649</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1954610819661457</v>
+        <v>0.07879637360099455</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08554935769960548</v>
+        <v>0.05667576976869989</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01980745863225109</v>
+        <v>0.02370169898070017</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01699884767153463</v>
+        <v>0.01170963547989306</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02842839232212672</v>
+        <v>0.008257807348657602</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01623795588061081</v>
+        <v>0.01935407382575893</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1476217386557025</v>
+        <v>0.01678085779036464</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06779473232414092</v>
+        <v>0.02919838813368797</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.013551006792669</v>
+        <v>0.0381626465249304</v>
       </c>
       <c r="C4" t="n">
-        <v>52.31666666666666</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
-        <v>24.34756944444445</v>
+        <v>3.066854884246189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5104600674066068</v>
+        <v>0.007235992147622631</v>
       </c>
       <c r="F4" t="n">
-        <v>38.3335</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4875</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="H4" t="n">
-        <v>166</v>
+        <v>162.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4369318879900472</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6504234063943313</v>
+        <v>0.01466599711193568</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2296454835758694</v>
+        <v>0.008554859160019199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2862442418776931</v>
+        <v>0.00153808049340288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1956440834184019</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02017690852984165</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003474137275660978</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -719,263 +739,288 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1118268517797652</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2535544134210388</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C5" t="n">
-        <v>41.49706945630858</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>22.56299773007624</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1562402638884014</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F5" t="n">
-        <v>56.58733333333333</v>
+        <v>90</v>
       </c>
       <c r="G5" t="n">
-        <v>3.620940251375034</v>
+        <v>5.962962962962963</v>
       </c>
       <c r="H5" t="n">
-        <v>198.2712221353526</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08255778891577729</v>
+        <v>0.003677447703553358</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125099537062961</v>
+        <v>0.002815763796167613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1384898415243828</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07902944510519649</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07879637360099453</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0566757697686999</v>
+        <v>0.005269740233434987</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02370169898070017</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01170963547989306</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008257807348657602</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01935407382575893</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01678085779036464</v>
+        <v>0.01040989934061737</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02919838813368797</v>
+        <v>0.007784269415471836</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5892238779585743</v>
+        <v>0.01665796539453802</v>
       </c>
       <c r="C6" t="n">
-        <v>26.60439682539683</v>
+        <v>38.55256410256411</v>
       </c>
       <c r="D6" t="n">
-        <v>10.43398616780046</v>
+        <v>11.81615614323948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1999512959040896</v>
+        <v>0.005961252498626564</v>
       </c>
       <c r="F6" t="n">
-        <v>69.7932</v>
+        <v>53.76425</v>
       </c>
       <c r="G6" t="n">
-        <v>3.201714285714286</v>
+        <v>4.587321937321937</v>
       </c>
       <c r="H6" t="n">
-        <v>164.421126984127</v>
+        <v>200.1669515669516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1405001346229749</v>
+        <v>0.00209124103034298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1932855067462401</v>
+        <v>0.001814808575812192</v>
       </c>
       <c r="K6" t="n">
-        <v>0.252907802581971</v>
+        <v>0.003000969565018019</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2460954404349191</v>
+        <v>0.004345199722640481</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06921598722615765</v>
+        <v>0.002109269233899339</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01877298192889057</v>
+        <v>0.003113588495630861</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4090893689587261</v>
+        <v>0.005218922036367857</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03726982703112885</v>
+        <v>0.008270852215534464</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0724668453573247</v>
+        <v>0.007106744686286152</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1988442314170556</v>
+        <v>0.009573545257041753</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06978501992195399</v>
+        <v>0.004265840384654273</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2078782193884533</v>
+        <v>0.003612144524598319</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.240391560347805</v>
+        <v>0.00179850486821376</v>
       </c>
       <c r="C7" t="n">
-        <v>49.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>14.56017316017316</v>
+        <v>3.134940676607343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.0007403722712035999</v>
       </c>
       <c r="F7" t="n">
-        <v>36.667</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>3.636363636363636</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H7" t="n">
-        <v>208.6363636363636</v>
+        <v>153.7333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.442585516314816</v>
+        <v>0.00040551989678928</v>
       </c>
       <c r="J7" t="n">
-        <v>0.190894056995376</v>
+        <v>0.00031479272028288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.000255422487027456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.619717585862592</v>
+        <v>1.076493240345511e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.489280158168768</v>
+        <v>0.001098145433929822</v>
       </c>
       <c r="N7" t="n">
-        <v>0.19511439981264</v>
+        <v>0.00110829872244672</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.00033395756206176</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.00049706259847776</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.850411529472e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.240730946816e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.00021774522361536</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0550479497904</v>
+        <v>0.00017615343932928</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5851638500402799</v>
+        <v>1.451195695158203</v>
       </c>
       <c r="C8" t="n">
-        <v>22.91213051605101</v>
+        <v>30.44444444444444</v>
       </c>
       <c r="D8" t="n">
-        <v>6.27555245947858</v>
+        <v>11.13888888888889</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1719004969183763</v>
+        <v>0.3837026265692987</v>
       </c>
       <c r="F8" t="n">
-        <v>81.33329999999999</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>3.946676872290992</v>
+        <v>9.033333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>164.5746172186704</v>
+        <v>148.0869565217391</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1889966270557309</v>
+        <v>0.7589032686881857</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1833240071765022</v>
+        <v>0.6645062288624256</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2036756724777248</v>
+        <v>0.59381883615168</v>
       </c>
       <c r="L8" t="n">
-        <v>0.130279285904632</v>
+        <v>0.1335340933137792</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2247114408768975</v>
+        <v>0.04887034653614401</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1437184610187588</v>
+        <v>0.041836441840704</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1629473933594911</v>
+        <v>0.00041958770618016</v>
       </c>
       <c r="P8" t="n">
-        <v>0.140280548828885</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1518773897085394</v>
+        <v>0.016636713714432</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1382294406930074</v>
+        <v>0.07082836206364801</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1065995054336128</v>
+        <v>0.371145510364608</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1110609608724311</v>
+        <v>0.6795445132199808</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1041,225 +1086,245 @@
       <c r="T9" t="n">
         <v>0.1291909426545095</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8373667371023176</v>
+        <v>0.01493212547609479</v>
       </c>
       <c r="C10" t="n">
-        <v>19.51159986246193</v>
+        <v>18.2</v>
       </c>
       <c r="D10" t="n">
-        <v>4.23441922408158</v>
+        <v>1.86209037138385</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2089360876246486</v>
+        <v>0.0021495293003498</v>
       </c>
       <c r="F10" t="n">
-        <v>93.33350000000002</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>5.414832007073386</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="H10" t="n">
-        <v>107.1277139208174</v>
+        <v>96.20689655172414</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3489053210801818</v>
+        <v>0.00672889827734208</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2506735541106233</v>
+        <v>0.00681883905456576</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1704412011285572</v>
+        <v>0.00387721059690384</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1831662762908496</v>
+        <v>0.00175317526017648</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01951296909098044</v>
+        <v>0.00020367741422448</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04006462070931908</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03463433507646</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03088801627128</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0147813939252</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04277891311178868</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2674310493453219</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.323478105947302</v>
+        <v>0.00260376802508592</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4658921950948696</v>
+        <v>1.663434869140399</v>
       </c>
       <c r="C11" t="n">
-        <v>19.70782591381354</v>
+        <v>29.88888888888889</v>
       </c>
       <c r="D11" t="n">
-        <v>4.576167529651693</v>
+        <v>14.13055555555555</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1012813667936998</v>
+        <v>0.8745611349613118</v>
       </c>
       <c r="F11" t="n">
-        <v>92.91681249999999</v>
+        <v>93.10300000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>5.131039330952655</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="H11" t="n">
-        <v>176.4058158296843</v>
+        <v>219.3333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.121893523996436</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1025246014961883</v>
+        <v>0.124530695303616</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1603079915575359</v>
+        <v>0.3852255526332197</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1493150815516634</v>
+        <v>1.287176270735767</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09103820196302935</v>
+        <v>0.6693971843101855</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1076360874717174</v>
+        <v>0.5917147811819143</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06905813176902754</v>
+        <v>0.7816350137321888</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05993786851484062</v>
+        <v>0.04778977566988801</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3516912630542076</v>
+        <v>0.1705201991340627</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09204302638768611</v>
+        <v>0.3622807516353992</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0726232657503325</v>
+        <v>0.016147398605184</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0966548722181179</v>
+        <v>0.127955901068352</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7126163559476358</v>
+        <v>0.6229270738899297</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0720764716045</v>
+        <v>23.67708333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>7.3984876331115</v>
+        <v>9.060707136983687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2629388318090267</v>
+        <v>0.2888887331947281</v>
       </c>
       <c r="F12" t="n">
-        <v>77.41374999999999</v>
+        <v>78.27575</v>
       </c>
       <c r="G12" t="n">
-        <v>3.432301111148365</v>
+        <v>3.18287037037037</v>
       </c>
       <c r="H12" t="n">
-        <v>193.4871454346569</v>
+        <v>210.9050925925926</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1176696888081667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1768152074323436</v>
+        <v>0.046133240143788</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1382631553493565</v>
+        <v>0.1757665745710309</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1413263622899007</v>
+        <v>0.4266703876551846</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3238749987241459</v>
+        <v>0.2063534869213184</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3397778706270921</v>
+        <v>0.2255901147068966</v>
       </c>
       <c r="O12" t="n">
-        <v>0.123864683071584</v>
+        <v>0.2473220283048272</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.012008608306128</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.08350824953527568</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.2185413800743658</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01139166350588448</v>
+        <v>0.006053745367227617</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03524663648019805</v>
+        <v>0.036780185711808</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1034152192298484</v>
+        <v>0.114046666018432</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1875</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="D13" t="n">
-        <v>20.59270833333333</v>
+        <v>3.112823136679346</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06770836659830544</v>
+        <v>0.01627905520207356</v>
       </c>
       <c r="F13" t="n">
-        <v>53.333</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3125</v>
+        <v>1.625</v>
       </c>
       <c r="H13" t="n">
-        <v>240.6875</v>
+        <v>202.037037037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1268,409 +1333,439 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.059237710413336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0197089135789248</v>
+        <v>0.0663755945694912</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.025063807262592</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.043684965586752</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.012416370897168</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.006850411529472</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.020673563365728</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4800147693132945</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C14" t="n">
-        <v>19.91680590057027</v>
+        <v>68.5</v>
       </c>
       <c r="D14" t="n">
-        <v>5.006574285785574</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.132458593690261</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F14" t="n">
-        <v>91.11108333333334</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>5.071125584185929</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>152.1001158313802</v>
+        <v>173</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1126109208328925</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1813484515831882</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1749482800312921</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1365457007607354</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2392999148649201</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07880500830917354</v>
+        <v>0.03668395374032331</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05147414004639186</v>
+        <v>0.006948274551321956</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04011753902630445</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05999251537672526</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.133871465887541</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07756220631389256</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1062205713848878</v>
+        <v>0.180190288980576</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6229270738899297</v>
+        <v>1.013551006792669</v>
       </c>
       <c r="C15" t="n">
-        <v>23.67708333333333</v>
+        <v>52.31666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>9.060707136983687</v>
+        <v>24.34756944444445</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2888887331947281</v>
+        <v>0.5104600674066068</v>
       </c>
       <c r="F15" t="n">
-        <v>78.27575</v>
+        <v>38.3335</v>
       </c>
       <c r="G15" t="n">
-        <v>3.18287037037037</v>
+        <v>2.4875</v>
       </c>
       <c r="H15" t="n">
-        <v>210.9050925925926</v>
+        <v>166</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.4369318879900472</v>
       </c>
       <c r="J15" t="n">
-        <v>0.046133240143788</v>
+        <v>0.6504234063943313</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1757665745710309</v>
+        <v>0.2296454835758694</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4266703876551846</v>
+        <v>0.2862442418776931</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2063534869213184</v>
+        <v>0.1956440834184019</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2255901147068965</v>
+        <v>0.02017690852984165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2473220283048272</v>
+        <v>0.003474137275660978</v>
       </c>
       <c r="P15" t="n">
-        <v>0.012008608306128</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08350824953527568</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2185413800743658</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.006053745367227617</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.036780185711808</v>
+        <v>0.1118268517797652</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8688677337398651</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C16" t="n">
-        <v>24.50289602372935</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>5.03552132747686</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1785313134923562</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F16" t="n">
-        <v>76.4285</v>
+        <v>26.667</v>
       </c>
       <c r="G16" t="n">
-        <v>4.621865244414264</v>
+        <v>2.375</v>
       </c>
       <c r="H16" t="n">
-        <v>155.6928758877288</v>
+        <v>159</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2927371738778066</v>
+        <v>0.3866690322055024</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3061300435438079</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2575992083335124</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2047547439009098</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2345341686971136</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1060617683467776</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2124830473779888</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0459364946936112</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1734357016599984</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1968501092418336</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2333210944060359</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3216936490666864</v>
+        <v>0.0434634145789544</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01665796539453802</v>
+        <v>1.708786224515866</v>
       </c>
       <c r="C17" t="n">
-        <v>38.55256410256411</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D17" t="n">
-        <v>11.81615614323948</v>
+        <v>10.96527777777778</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005961252498626564</v>
+        <v>0.5300636404958092</v>
       </c>
       <c r="F17" t="n">
-        <v>53.76425</v>
+        <v>96.667</v>
       </c>
       <c r="G17" t="n">
-        <v>4.587321937321938</v>
+        <v>6.551724137931035</v>
       </c>
       <c r="H17" t="n">
-        <v>200.1669515669516</v>
+        <v>202</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00209124103034298</v>
+        <v>0.56847930370848</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001814808575812192</v>
+        <v>0.79146718920864</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003000969565018019</v>
+        <v>0.661336554321408</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004345199722640481</v>
+        <v>0.5337298653182031</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002109269233899339</v>
+        <v>1.17109416146688</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003113588495630861</v>
+        <v>0.47166481423584</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005218922036367857</v>
+        <v>0.558145434615552</v>
       </c>
       <c r="P17" t="n">
-        <v>0.008270852215534464</v>
+        <v>0.5251574410004161</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.007106744686286152</v>
+        <v>0.7365823444546561</v>
       </c>
       <c r="R17" t="n">
-        <v>0.009573545257041753</v>
+        <v>0.4341489083061991</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004265840384654273</v>
+        <v>0.365579550996913</v>
       </c>
       <c r="T17" t="n">
-        <v>0.003612144524598319</v>
+        <v>0.400555387243369</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6864048737351151</v>
+        <v>0.5851638500402799</v>
       </c>
       <c r="C18" t="n">
-        <v>27.88482926065163</v>
+        <v>22.91213051605101</v>
       </c>
       <c r="D18" t="n">
-        <v>6.762481771765724</v>
+        <v>6.275552459478579</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1764126116516787</v>
+        <v>0.1719004969183763</v>
       </c>
       <c r="F18" t="n">
-        <v>66.6665</v>
+        <v>81.33329999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>3.823269110275689</v>
+        <v>3.946676872290992</v>
       </c>
       <c r="H18" t="n">
-        <v>165.8944235588972</v>
+        <v>164.5746172186704</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1829413903675745</v>
+        <v>0.1889966270557309</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2351985158985656</v>
+        <v>0.1833240071765022</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1567278588585919</v>
+        <v>0.2036756724777247</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08723897142134833</v>
+        <v>0.1302792859046319</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2881083540477933</v>
+        <v>0.2247114408768975</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5227830831216392</v>
+        <v>0.1437184610187587</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4108101067047852</v>
+        <v>0.1629473933594911</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1235795635748533</v>
+        <v>0.140280548828885</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04044923350598592</v>
+        <v>0.1518773897085395</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1173295569755257</v>
+        <v>0.1382294406930073</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0917670439283004</v>
+        <v>0.1065995054336128</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1903074128391</v>
+        <v>0.1110609608724311</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5198040799309184</v>
+        <v>0.1052497227388078</v>
       </c>
       <c r="C19" t="n">
-        <v>27.66416263475087</v>
+        <v>18.89655172413793</v>
       </c>
       <c r="D19" t="n">
-        <v>17.95399725546784</v>
+        <v>2.531450845751049</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3835554598922231</v>
+        <v>0.02086036786906372</v>
       </c>
       <c r="F19" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>1.873949579831933</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>249.942237501061</v>
+        <v>143.36</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.01723612472326083</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0156528408340512</v>
       </c>
       <c r="K19" t="n">
-        <v>2.44657554624e-05</v>
+        <v>0.0153400286749248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04348788033441601</v>
+        <v>0.01343601723511567</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2275953526388352</v>
+        <v>0.0518123536304976</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3257672288616519</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.102829065359545</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0044527674941568</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.0095090236230528</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1679,455 +1774,3945 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.01279375517517557</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.634042786480595</v>
+        <v>2.976967371238029</v>
       </c>
       <c r="C20" t="n">
-        <v>22.05654427583</v>
+        <v>30.38888888888889</v>
       </c>
       <c r="D20" t="n">
-        <v>5.037722382792753</v>
+        <v>13.29074074074074</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1342857366631058</v>
+        <v>1.029893487605879</v>
       </c>
       <c r="F20" t="n">
-        <v>85.00007142857143</v>
+        <v>93.333</v>
       </c>
       <c r="G20" t="n">
-        <v>4.712336182336182</v>
+        <v>4.578947368421052</v>
       </c>
       <c r="H20" t="n">
-        <v>172.9901680330252</v>
+        <v>244.421052631579</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1810728355449005</v>
+        <v>0.71929321059456</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1656098906503692</v>
+        <v>0.91257267874752</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2179220677800369</v>
+        <v>0.417711998261376</v>
       </c>
       <c r="L20" t="n">
-        <v>0.182637733742873</v>
+        <v>0.449272822807872</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1333547414666224</v>
+        <v>1.46165413348224</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1221806866767041</v>
+        <v>1.64088763666884</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1506486319701617</v>
+        <v>0.77855470715904</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06268131792128764</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.364413726542808</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1297589082458278</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1511987681985375</v>
+        <v>0.05578192245427201</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1845932053040792</v>
+        <v>0.131870421942336</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5119797746179653</v>
+        <v>0.7126163559476358</v>
       </c>
       <c r="C21" t="n">
-        <v>28.50276374859708</v>
+        <v>24.0720764716045</v>
       </c>
       <c r="D21" t="n">
-        <v>9.763873110455712</v>
+        <v>7.3984876331115</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2133138161799007</v>
+        <v>0.2629388318090267</v>
       </c>
       <c r="F21" t="n">
-        <v>64.44433333333332</v>
+        <v>77.41374999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>2.910815759938567</v>
+        <v>3.432301111148365</v>
       </c>
       <c r="H21" t="n">
-        <v>188.3803089373265</v>
+        <v>193.4871454346569</v>
       </c>
       <c r="I21" t="n">
-        <v>0.235856552986368</v>
+        <v>0.1176696888081667</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2130873164299237</v>
+        <v>0.1768152074323436</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2287045079175198</v>
+        <v>0.1382631553493564</v>
       </c>
       <c r="L21" t="n">
-        <v>0.204583070041498</v>
+        <v>0.1413263622899007</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04311862865475199</v>
+        <v>0.3238749987241459</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0148484482179488</v>
+        <v>0.339777870627092</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2913234157744362</v>
+        <v>0.123864683071584</v>
       </c>
       <c r="P21" t="n">
-        <v>0.041951893669556</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04775243862051651</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0507615720868648</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0251494374067104</v>
+        <v>0.01139166350588448</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1377664424740016</v>
+        <v>0.03524663648019805</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6186911611634733</v>
+        <v>0.0726921283636944</v>
       </c>
       <c r="C22" t="n">
-        <v>18.85555555555555</v>
+        <v>19.53571428571428</v>
       </c>
       <c r="D22" t="n">
-        <v>3.222521711676124</v>
+        <v>4.561654908877131</v>
       </c>
       <c r="E22" t="n">
-        <v>0.122796900642108</v>
+        <v>0.01810978663877938</v>
       </c>
       <c r="F22" t="n">
-        <v>95.833375</v>
+        <v>60</v>
       </c>
       <c r="G22" t="n">
-        <v>5.706445868945869</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="H22" t="n">
-        <v>163.5177706552707</v>
+        <v>144.5555555555555</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1609106495341006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1455748466296022</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2222378384222573</v>
+        <v>0.02478524944549722</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2113576838611647</v>
+        <v>0.03133173610898444</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1433187697949126</v>
+        <v>0.00378240579448704</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08686815260648824</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1067693723630957</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0855181564916558</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4639044557274479</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06410183390636638</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08654291373303633</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1228980311517685</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9245553800683389</v>
+        <v>1.343028331038346</v>
       </c>
       <c r="C23" t="n">
-        <v>22.79497126436781</v>
+        <v>34.1875</v>
       </c>
       <c r="D23" t="n">
-        <v>7.705907453019523</v>
+        <v>8.091145833333332</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3886561457965891</v>
+        <v>0.4033111112171833</v>
       </c>
       <c r="F23" t="n">
-        <v>82.50024999999999</v>
+        <v>80</v>
       </c>
       <c r="G23" t="n">
-        <v>3.381896551724138</v>
+        <v>4.476190476190476</v>
       </c>
       <c r="H23" t="n">
-        <v>207.1423850574712</v>
+        <v>177.4285714285714</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06619810862026645</v>
+        <v>0.287513402942304</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1238988671687997</v>
+        <v>0.581672112830787</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1544037225253658</v>
+        <v>0.2654045152561152</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4466957856370375</v>
+        <v>0.137456769439584</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2676069628095381</v>
+        <v>0.7665121186369921</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2954705501042907</v>
+        <v>1.461461902546464</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4518150769335099</v>
+        <v>0.712279694028672</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1880091366637683</v>
+        <v>0.313895642582592</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1477853958706275</v>
+        <v>0.1132886806686432</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2125003772881082</v>
+        <v>0.240314883029424</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02887213996182608</v>
+        <v>0.1327124516928336</v>
       </c>
       <c r="T23" t="n">
-        <v>0.069526579991753</v>
+        <v>0.289980366618096</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9310269942115126</v>
+        <v>0.6864048737351152</v>
       </c>
       <c r="C24" t="n">
-        <v>34.9</v>
+        <v>27.88482926065163</v>
       </c>
       <c r="D24" t="n">
-        <v>19.57222222222222</v>
+        <v>6.762481771765724</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6381473506205826</v>
+        <v>0.1764126116516787</v>
       </c>
       <c r="F24" t="n">
-        <v>54.762</v>
+        <v>66.6665</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3.823269110275689</v>
       </c>
       <c r="H24" t="n">
-        <v>232.15</v>
+        <v>165.8944235588972</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03482700290072641</v>
+        <v>0.1829413903675745</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1313872232719536</v>
+        <v>0.2351985158985656</v>
       </c>
       <c r="K24" t="n">
-        <v>0.244005134478336</v>
+        <v>0.1567278588585919</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1090003774195392</v>
+        <v>0.08723897142134833</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3494311929503374</v>
+        <v>0.2881083540477933</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5111838247680662</v>
+        <v>0.5227830831216391</v>
       </c>
       <c r="O24" t="n">
-        <v>0.116181756252072</v>
+        <v>0.4108101067047852</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.1235795635748533</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.04044923350598592</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1173295569755257</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.0917670439283004</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0008196028079904</v>
+        <v>0.1903074128391</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.66439628271616</v>
+        <v>0.2052233441477604</v>
       </c>
       <c r="C25" t="n">
-        <v>20.07407407407407</v>
+        <v>22.625</v>
       </c>
       <c r="D25" t="n">
-        <v>7.573456790123457</v>
+        <v>4.586791383219955</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5570731700242987</v>
+        <v>0.04305078856951004</v>
       </c>
       <c r="F25" t="n">
-        <v>90</v>
+        <v>53.333</v>
       </c>
       <c r="G25" t="n">
-        <v>2.666666666666667</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>115.4074074074074</v>
+        <v>151.3333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8629615635043201</v>
+        <v>0.097648946489304</v>
       </c>
       <c r="J25" t="n">
-        <v>0.63803195138016</v>
+        <v>0.043671373500384</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3832968355776</v>
+        <v>0.0687161518420608</v>
       </c>
       <c r="L25" t="n">
-        <v>0.61898361319872</v>
+        <v>0.03683808799973576</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0193157139375648</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05137808647104</v>
+        <v>0.07989816712435201</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.1567961336074291</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.028380276336384</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.02212112056392</v>
       </c>
       <c r="S25" t="n">
-        <v>0.41661686444544</v>
+        <v>0.02415993351912</v>
       </c>
       <c r="T25" t="n">
-        <v>0.74158423223808</v>
+        <v>0.04321631044878337</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.582992630216</v>
+      </c>
+      <c r="C26" t="n">
+        <v>35.86666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22.36666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4334532986126263</v>
+      </c>
+      <c r="F26" t="n">
+        <v>86.20699999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>181.6111111111111</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3809562783050304</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4982117475979637</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.55537264899648</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6011480774666305</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.169139922763392</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.069972060622464</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.099858036812192</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.078045759925056</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.133583024824704</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.62143018874496</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.202331797674048</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.542130558852456</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5892238779585744</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26.60439682539683</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.43398616780046</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1999512959040896</v>
+      </c>
+      <c r="F27" t="n">
+        <v>69.7932</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.201714285714286</v>
+      </c>
+      <c r="H27" t="n">
+        <v>164.421126984127</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1405001346229749</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1932855067462401</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2529078025819711</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2460954404349191</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06921598722615764</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01877298192889057</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.4090893689587259</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03726982703112885</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0724668453573247</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1988442314170556</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.06978501992195399</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2078782193884533</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.09457774661402281</v>
+      </c>
+      <c r="C28" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.407539682539682</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03187481994528391</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>156.4761904761905</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03856692724709237</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03477251099083287</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04935307471122904</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.05382466201728</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.001449596011147245</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01946984819697792</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0060511968510336</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02200042283697229</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.005627123756352</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.003914520873984</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.006383115600140196</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6308382127108494</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.0625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.760044642857143</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1281503218610104</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>242</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.001469535601849058</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.07671971597899417</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3543538468655814</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06199622434172195</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1830676365783506</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3319809865546671</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.2146992370602916</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.05664393257173065</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.03870482514151698</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.05688078438532616</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1135993957630158</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0268878652531776</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1292368581010736</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22.02998671406055</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.195568828515818</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02514960964261424</v>
+      </c>
+      <c r="F30" t="n">
+        <v>85.33329999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.110557616795997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>225.4354316495599</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.000551608592518591</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01264714122297719</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05560352246151042</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01459861733545111</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04739029985559901</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05157395378435144</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.04713371374499304</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01595448882871097</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01504143798129854</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01691459916784988</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01916775728140595</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.009705888052528512</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01023125272430287</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.99243931993932</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001252820793503518</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.269230769230769</v>
+      </c>
+      <c r="H31" t="n">
+        <v>208.16</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001161511740577441</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001436466055715714</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.003733471624240996</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00203403533684165</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0009491489831638106</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.000988375744421858</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0003367711239399382</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0008143018943068831</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.822812045525668e-05</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
+        <v>4.193321749564416</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29.78703703703703</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.774263382176432</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>278</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02135126479203648</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.049665483588672</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5948848440682559</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.90767952765504</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.902052403898688</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.556609225539738</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.411344858374144</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.403108054035136</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.994165973214624</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6655501010954881</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.673664576657184</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.111074529799296</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>0.2477118055108723</v>
       </c>
-      <c r="C26" t="n">
-        <v>25.33545098198495</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.570297255135154</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="C33" t="n">
+        <v>25.33545098198494</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.570297255135152</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.105694257226433</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>77.7778</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.94467714430648</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G33" t="n">
+        <v>3.944677144306481</v>
+      </c>
+      <c r="H33" t="n">
         <v>234.0083481217407</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.0009993492700441063</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.003997841520022054</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.04597775835001109</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.05254477930244482</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="L33" t="n">
+        <v>0.05254477930244483</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.06021290034951324</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N33" t="n">
         <v>0.1014817575758623</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O33" t="n">
         <v>0.1348708466343825</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P33" t="n">
         <v>0.1097153569808428</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q33" t="n">
         <v>0.0570960446015711</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R33" t="n">
         <v>0.03379527615195738</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S33" t="n">
         <v>0.03266854714570853</v>
       </c>
-      <c r="T26" t="n">
-        <v>0.009895894206481876</v>
+      <c r="T33" t="n">
+        <v>0.009895894206481874</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0002269135389401234</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.930296571620101</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.106582284968535e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="H34" t="n">
+        <v>200.3461538461538</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.100874421556308e-05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.749316612800388e-05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.453993402070791e-05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.448359131287712</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30.38888888888889</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.44907407407407</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.170028315360856</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.2777777777778</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.576413198694144</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4074037599598849</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5320384347242161</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9893601998202239</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8095718482508161</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.424807067345472</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.07788092189762816</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.06507890952998401</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.114866721895968</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.042040323136224</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.745471568939328</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.22416748442424</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3586537138373591</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22.60694833163073</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.859673158172887</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2283285814934422</v>
+      </c>
+      <c r="F36" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.42226079862196</v>
+      </c>
+      <c r="H36" t="n">
+        <v>152.5994682403031</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1255977654724005</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.10502817008801</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1260645601908378</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1948900946647769</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1954610819661457</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08554935769960548</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01980745863225109</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01699884767153463</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02842839232212673</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.01623795588061081</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.1476217386557025</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0677947323241409</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.070234193716704</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.908120711704303</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009885827140006522</v>
+      </c>
+      <c r="F37" t="n">
+        <v>60</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.611111111111111</v>
+      </c>
+      <c r="H37" t="n">
+        <v>145.1153846153846</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01780205627724632</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0297748243977408</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.010350373769232</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0194729937941088</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0402064108830216</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0005871781310976001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.009800981638237441</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.01475507470341469</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.708786224515866</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.046527777777778</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5300636404958092</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>163.1851851851852</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.56847930370848</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.79146718920864</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.661336554321408</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5337298653182031</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.17109416146688</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.4403835983232001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.305985048316416</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.426682775264256</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.334446877171008</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.782170202132928</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.305577285725376</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.291876462666432</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4800147693132945</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19.91680590057027</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.006574285785574</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.132458593690261</v>
+      </c>
+      <c r="F39" t="n">
+        <v>91.11108333333334</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.071125584185929</v>
+      </c>
+      <c r="H39" t="n">
+        <v>152.1001158313802</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1126109208328925</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1813484515831882</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1749482800312921</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1365457007607355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2392999148649201</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.07880500830917354</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.05147414004639186</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.04011753902630444</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.05999251537672525</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.133871465887541</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.07756220631389257</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1062205713848878</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.070234193716704</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.496743688314896</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.009885827140006522</v>
+      </c>
+      <c r="F40" t="n">
+        <v>80</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>140.1923076923077</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01780205627724632</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0297748243977408</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.010350373769232</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0194729937941088</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0400993732028736</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.009040096643356799</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.002586030352375698</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.005841199116648</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00489315109248</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.01475507470341469</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.769605070861888</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.78260869565218</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.19057971014493</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6463243861869459</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.724137931034482</v>
+      </c>
+      <c r="H41" t="n">
+        <v>212.2307692307692</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9012807916110277</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.394116136326528</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9894466577530612</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.27405421570448</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.417385788188544</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8269425346291199</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6768859011264</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.29277354036672</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.34198444163824</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.270101940304896</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.3608698930704</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5740555895314037</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4658921950948696</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19.70782591381354</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.576167529651693</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1012813667936998</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.91681250000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.131039330952656</v>
+      </c>
+      <c r="H42" t="n">
+        <v>176.4058158296843</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.121893523996436</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1025246014961883</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1603079915575359</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1493150815516634</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.09103820196302935</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1076360874717174</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.06905813176902754</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.05993786851484061</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3516912630542077</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.09204302638768609</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0726232657503325</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.09665487221811792</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01613195986984049</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.806169755231622</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.001478441761253178</v>
+      </c>
+      <c r="F43" t="n">
+        <v>76.667</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.347826086956522</v>
+      </c>
+      <c r="H43" t="n">
+        <v>158.5862068965517</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.00232771275095184</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.00307534546162368</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.003974302415592126</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.003317667648680814</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.001549571984604917</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0023517707438232</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.00117863776940112</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.003054079074183286</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0036943290748224</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.002552445542604568</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.00232750886965632</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.067044798593216</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32.1764705882353</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.1078431372549</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.831552193634496</v>
+      </c>
+      <c r="F44" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>253.6470588235294</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.339726638720001e-05</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.07376425271913602</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5165008810529845</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6573433424210829</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.165062296852992</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.0133583024824704</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5198040799309184</v>
+      </c>
+      <c r="C45" t="n">
+        <v>27.66416263475087</v>
+      </c>
+      <c r="D45" t="n">
+        <v>17.95399725546784</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3835554598922231</v>
+      </c>
+      <c r="F45" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.873949579831933</v>
+      </c>
+      <c r="H45" t="n">
+        <v>249.942237501061</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.44657554624e-05</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.04348788033441601</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2275953526388352</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.3257672288616519</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.102829065359545</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0044527674941568</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.153151180875449</v>
+      </c>
+      <c r="C46" t="n">
+        <v>24.86363636363636</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.74621212121212</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1087775289853148</v>
+      </c>
+      <c r="F46" t="n">
+        <v>56.667</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="H46" t="n">
+        <v>247.952380952381</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0235238238770976</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.06641840964155041</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1001243566759104</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0244063386277056</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.324832891166691</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.006105261880275</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66.667</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>247.05</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.06965400580145281</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2627744465439072</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.488010268956672</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1837486971917184</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5928196464748123</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8472491116629121</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.219947141606976</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9310269942115126</v>
+      </c>
+      <c r="C48" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.57222222222222</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6381473506205826</v>
+      </c>
+      <c r="F48" t="n">
+        <v>54.762</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>232.15</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03482700290072641</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1313872232719536</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.244005134478336</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1090003774195392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3494311929503374</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5111838247680662</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.116181756252072</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0008196028079904</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5372210972563344</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>18.36666666666667</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.27018943936089</v>
+      </c>
+      <c r="F49" t="n">
+        <v>42.857</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.03425205764736</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1060427394258624</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1751185378732205</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.012416370897168</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="C50" t="n">
+        <v>21.07692307692308</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7.573456790123457</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5570731700242987</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.366666666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>115.4074074074074</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.63803195138016</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3832968355776</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.06562938902788801</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.08665325752864582</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.11468322873</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.119148229101888</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.04330438716844801</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.10214452905552</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8373667371023176</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19.51159986246193</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.23441922408158</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2089360876246486</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93.3335</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.414832007073386</v>
+      </c>
+      <c r="H51" t="n">
+        <v>107.1277139208174</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.3489053210801818</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.2506735541106233</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1704412011285572</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.1831662762908497</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01951296909098044</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.04006462070931908</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.03463433507646</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.03088801627128</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.0147813939252</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.04277891311178868</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.267431049345322</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.3234781059473021</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5020617678439104</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.03333333333333</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.130929163429164</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.06060266017904435</v>
+      </c>
+      <c r="F52" t="n">
+        <v>86.667</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.08161077000672001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.08754153126389999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.07374266528784565</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.018403684942272</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.002654534467670489</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.1342272897185476</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.114193913620752</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.769605070861888</v>
+      </c>
+      <c r="C53" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.58126984126984</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6463243861869459</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.307692307692307</v>
+      </c>
+      <c r="H53" t="n">
+        <v>214</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9012807916110277</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.394116136326528</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9894466577530612</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.27405421570448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.417385788188544</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8269425346291199</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.6768859011264</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.29277354036672</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.34198444163824</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.285305659770816</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.443319488978688</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.5740555895314037</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.634042786480595</v>
+      </c>
+      <c r="C54" t="n">
+        <v>22.05654427582999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.037722382792753</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1342857366631058</v>
+      </c>
+      <c r="F54" t="n">
+        <v>85.00007142857143</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.712336182336182</v>
+      </c>
+      <c r="H54" t="n">
+        <v>172.9901680330252</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1810728355449005</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1656098906503692</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2179220677800369</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.182637733742873</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1333547414666224</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1221806866767041</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.1506486319701617</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.06268131792128764</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3644137265428079</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1297589082458278</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.1511987681985375</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1845932053040793</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1726772318743111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.905323095707712</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.03975466451261615</v>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.538461538461538</v>
+      </c>
+      <c r="H55" t="n">
+        <v>154.3461538461538</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.028571873783849</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.06656745759917002</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.06658661171035452</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.035353016643168</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.025811372012832</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01424946762518837</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.01838356865444736</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.03779469903831559</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.02099797928315949</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1034152192298484</v>
+      </c>
+      <c r="C56" t="n">
+        <v>34.1875</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20.59270833333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.06770836659830544</v>
+      </c>
+      <c r="F56" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="H56" t="n">
+        <v>240.6875</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0197089135789248</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04392744840755712</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0587830551243264</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0760762666103328</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0002201917991616</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1034152192298484</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34.1875</v>
+      </c>
+      <c r="D57" t="n">
+        <v>20.59270833333333</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.06770836659830544</v>
+      </c>
+      <c r="F57" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="H57" t="n">
+        <v>240.6875</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0197089135789248</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.04392744840755712</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0587830551243264</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0760762666103328</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0002201917991616</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1034152192298484</v>
+      </c>
+      <c r="C58" t="n">
+        <v>34.1875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20.59270833333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.06770836659830544</v>
+      </c>
+      <c r="F58" t="n">
+        <v>53.333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="H58" t="n">
+        <v>240.6875</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0197089135789248</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.04392744840755712</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0587830551243264</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0760762666103328</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0002201917991616</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.927534544105184</v>
+      </c>
+      <c r="C59" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.107870571726128</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>234.35</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.158064071384268</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.204533715665664</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2681039036088</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.364059966088271</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.68574017453184</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.45370384296384</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.88525258514784</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7203533933312641</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4476417724437121</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.356221399532544</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.0545994109402563</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.09468247363948801</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9245553800683389</v>
+      </c>
+      <c r="C60" t="n">
+        <v>22.79497126436782</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.705907453019523</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3886561457965891</v>
+      </c>
+      <c r="F60" t="n">
+        <v>82.50024999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.381896551724138</v>
+      </c>
+      <c r="H60" t="n">
+        <v>207.1423850574712</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.06619810862026645</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1238988671687997</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1544037225253658</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.4466957856370375</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.2676069628095381</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2954705501042907</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4518150769335099</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.1880091366637683</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1477853958706275</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2125003772881082</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.02887213996182608</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.069526579991753</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.308071105489064</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18.23333333333333</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.704775132275133</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.08466325810976816</v>
+      </c>
+      <c r="F61" t="n">
+        <v>66.667</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H61" t="n">
+        <v>179.6333333333333</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.071657479332096</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0635262750487172</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.07677798896018619</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1000608622153069</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.08791769225413569</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.01712602882368</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.08446802073393689</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.240391560347805</v>
+      </c>
+      <c r="C62" t="n">
+        <v>49.45454545454545</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14.56017316017316</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4010855580459909</v>
+      </c>
+      <c r="F62" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="H62" t="n">
+        <v>208.6363636363636</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.442585516314816</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.190894056995376</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.4448282105655361</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.619717585862592</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.489280158168768</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.19511439981264</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0550479497904</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.240391560347805</v>
+      </c>
+      <c r="C63" t="n">
+        <v>49.45454545454545</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14.56017316017316</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4010855580459909</v>
+      </c>
+      <c r="F63" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="H63" t="n">
+        <v>208.6363636363636</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.442585516314816</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.190894056995376</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4448282105655361</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.619717585862592</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.489280158168768</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.19511439981264</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0550479497904</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.240391560347805</v>
+      </c>
+      <c r="C64" t="n">
+        <v>49.45454545454545</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14.56017316017316</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4010855580459909</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="H64" t="n">
+        <v>208.6363636363636</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.442585516314816</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.190894056995376</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.4448282105655361</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.619717585862592</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.489280158168768</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.19511439981264</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.0550479497904</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.63160375624784</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.553081232492997</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3945072694159811</v>
+      </c>
+      <c r="F65" t="n">
+        <v>93.333</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>173.3333333333333</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.543087344646432</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5639500550291803</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.4930879862745701</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.382032771545376</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.81124367487408</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.260193309342624</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.517573056807072</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.1074780637463232</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.397385033098032</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.6480326201844097</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.595985803064064</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.5371273118603952</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8688677337398651</v>
+      </c>
+      <c r="C66" t="n">
+        <v>24.50289602372935</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.03552132747686</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1785313134923562</v>
+      </c>
+      <c r="F66" t="n">
+        <v>76.4285</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.621865244414264</v>
+      </c>
+      <c r="H66" t="n">
+        <v>155.6928758877288</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2927371738778066</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3061300435438079</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2575992083335124</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.2047547439009098</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2345341686971136</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1060617683467776</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.2124830473779888</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0459364946936112</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1734357016599984</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1968501092418336</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.2333210944060359</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.3216936490666864</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.331144000183584</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.92857142857143</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.293558293558294</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.06957155302817368</v>
+      </c>
+      <c r="F67" t="n">
+        <v>56.667</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="H67" t="n">
+        <v>137.9285714285714</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.07924680610230109</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1744853196386618</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.07373089032532364</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.035353016643168</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.025811372012832</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.018471645374112</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.038655893630592</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.012599864063136</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.062667285062976</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.148670240693184</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.687293058342147</v>
+      </c>
+      <c r="C68" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19.63333333333333</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7159467030098948</v>
+      </c>
+      <c r="F68" t="n">
+        <v>73.333</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.684210526315789</v>
+      </c>
+      <c r="H68" t="n">
+        <v>254.8181818181818</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.730687262424192</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.6143623038336</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.616668776335739</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9509227504348321</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.110952201021984</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.03945103068312</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.625912555512896</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0747265724339904</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.1097431849395504</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1323108055406592</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.07503647200318081</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.46362606601248</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5119797746179653</v>
+      </c>
+      <c r="C69" t="n">
+        <v>28.50276374859708</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.763873110455712</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2133138161799007</v>
+      </c>
+      <c r="F69" t="n">
+        <v>64.44433333333333</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.910815759938567</v>
+      </c>
+      <c r="H69" t="n">
+        <v>188.3803089373265</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.2358565529863681</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2130873164299237</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2287045079175198</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.204583070041498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.04311862865475199</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0148484482179488</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.2913234157744362</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.041951893669556</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.04775243862051651</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0507615720868648</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.0251494374067104</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.1377664424740016</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.06704506660532596</v>
+      </c>
+      <c r="C70" t="n">
+        <v>24.63636363636364</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.960609857978278</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01307793248738552</v>
+      </c>
+      <c r="F70" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.733333333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>154.75</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.02057005440031016</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.03685521402855936</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.019042513001568</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0144942125575104</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0141045080240736</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.000570867627456</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0061898361319872</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.568822771033792</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.23138888888889</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6072631571235937</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.966666666666667</v>
+      </c>
+      <c r="H71" t="n">
+        <v>184.1851851851852</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.688140148639104</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.342275918918976</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.02375594523776</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.18949444838756</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.4099126119745746</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.3639281125032</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.5423242460832</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.45995620269312</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.59418560419648</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.24098769130464</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.3501661250556</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.44323793646048</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6186911611634733</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18.85555555555556</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.222521711676124</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.122796900642108</v>
+      </c>
+      <c r="F72" t="n">
+        <v>95.833375</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.706445868945869</v>
+      </c>
+      <c r="H72" t="n">
+        <v>163.5177706552707</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1609106495341006</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1455748466296022</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2222378384222573</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2113576838611647</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1433187697949126</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.08686815260648824</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.1067693723630957</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0855181564916558</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.4639044557274479</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.06410183390636638</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.08654291373303633</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1228980311517685</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.08772783799174634</v>
+      </c>
+      <c r="C73" t="n">
+        <v>17.56666666666667</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.354682077182078</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01137236432559072</v>
+      </c>
+      <c r="F73" t="n">
+        <v>86.667</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>147.5185185185185</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.01639368721017219</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.03450650150416901</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.02482610108928197</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01389971525923249</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.01605932188551939</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.006961555961429777</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.000978630218496</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0183493165968</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.00319359661302529</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.005155983208304655</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.02666882478368486</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.07407407407407</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.573456790123457</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5570731700242987</v>
+      </c>
+      <c r="F74" t="n">
+        <v>90</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H74" t="n">
+        <v>115.4074074074074</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.63803195138016</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.3832968355776</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.05137808647104</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20.07407407407407</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.573456790123457</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5570731700242987</v>
+      </c>
+      <c r="F75" t="n">
+        <v>90</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H75" t="n">
+        <v>115.4074074074074</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.63803195138016</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.3832968355776</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.05137808647104</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.66439628271616</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20.07407407407407</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.573456790123457</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5570731700242987</v>
+      </c>
+      <c r="F76" t="n">
+        <v>90</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H76" t="n">
+        <v>115.4074074074074</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.63803195138016</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3832968355776</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.05137808647104</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tables/aq_hmf_metrics_outlet_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -559,10 +559,10 @@
         <v>0.7730666110289665</v>
       </c>
       <c r="F2" t="n">
-        <v>93.333</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>6.434782608695652</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>239</v>
@@ -589,7 +589,7 @@
         <v>0.1213746128489664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0788531298553152</v>
+        <v>0.10520274848832</v>
       </c>
       <c r="Q2" t="n">
         <v>0.044711168107536</v>
@@ -601,7 +601,7 @@
         <v>0.11376576290016</v>
       </c>
       <c r="T2" t="n">
-        <v>0.187897001951232</v>
+        <v>0.175664124220032</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -616,61 +616,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2535544134210388</v>
+        <v>0.3106064139159565</v>
       </c>
       <c r="C3" t="n">
-        <v>41.49706945630859</v>
+        <v>47.46710729746444</v>
       </c>
       <c r="D3" t="n">
-        <v>22.56299773007623</v>
+        <v>27.79829967486217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1562402638884014</v>
+        <v>0.1974998140397347</v>
       </c>
       <c r="F3" t="n">
-        <v>56.58733333333333</v>
+        <v>47.517</v>
       </c>
       <c r="G3" t="n">
-        <v>3.620940251375034</v>
+        <v>3.222634508348794</v>
       </c>
       <c r="H3" t="n">
-        <v>198.2712221353526</v>
+        <v>203.248840445269</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08255778891577728</v>
+        <v>0.1052618158122221</v>
       </c>
       <c r="J3" t="n">
-        <v>0.125099537062961</v>
+        <v>0.1584461907013429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1384898415243828</v>
+        <v>0.173297644897032</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07902944510519649</v>
+        <v>0.09662240000551804</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07879637360099455</v>
+        <v>0.09924745792826084</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05667576976869989</v>
+        <v>0.07165080173423609</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02370169898070017</v>
+        <v>0.02935261536061826</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01170963547989306</v>
+        <v>0.026516218777344</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008257807348657602</v>
+        <v>0.0140951877362784</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01935407382575893</v>
+        <v>0.02563731563825664</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01678085779036464</v>
+        <v>0.0206482238332848</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02919838813368797</v>
+        <v>0.0325843086500064</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0381626465249304</v>
+        <v>0.06750509694667201</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>21.95833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>3.066854884246189</v>
+        <v>2.555758708883709</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007235992147622631</v>
+        <v>0.006864442739126485</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01466599711193568</v>
+        <v>0.01679818770048384</v>
       </c>
       <c r="K4" t="n">
         <v>0.008554859160019199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00153808049340288</v>
+        <v>0.0079618558490496</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.002157434799866182</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.005932945699632</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0.06507890952998401</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.114866721895968</v>
+        <v>0.176031110551968</v>
       </c>
       <c r="R35" t="n">
-        <v>0.042040323136224</v>
+        <v>0.208203578985024</v>
       </c>
       <c r="S35" t="n">
         <v>0.745471568939328</v>
@@ -2893,61 +2893,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3586537138373591</v>
+        <v>0.3256155432072392</v>
       </c>
       <c r="C36" t="n">
-        <v>22.60694833163073</v>
+        <v>22.26049971026151</v>
       </c>
       <c r="D36" t="n">
-        <v>8.859673158172887</v>
+        <v>8.47151864304969</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2283285814934422</v>
+        <v>0.1928490813871153</v>
       </c>
       <c r="F36" t="n">
-        <v>83.33333333333333</v>
+        <v>84.107125</v>
       </c>
       <c r="G36" t="n">
-        <v>4.42226079862196</v>
+        <v>4.037448804094676</v>
       </c>
       <c r="H36" t="n">
-        <v>152.5994682403031</v>
+        <v>151.3486396417658</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1255977654724005</v>
+        <v>0.1066096287636511</v>
       </c>
       <c r="J36" t="n">
-        <v>0.10502817008801</v>
+        <v>0.09711356316908373</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1260645601908378</v>
+        <v>0.1167867476949579</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1948900946647769</v>
+        <v>0.1620289148788205</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1954610819661457</v>
+        <v>0.1741480175579483</v>
       </c>
       <c r="N36" t="n">
-        <v>0.08554935769960548</v>
+        <v>0.07316610438423971</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01980745863225109</v>
+        <v>0.01502876564957063</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01699884767153463</v>
+        <v>0.01274913575365098</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02842839232212673</v>
+        <v>0.04364675483394997</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01623795588061081</v>
+        <v>0.04268548001073514</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1476217386557025</v>
+        <v>0.1509651221842667</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0677947323241409</v>
+        <v>0.07404687587678654</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         <v>1.611111111111111</v>
       </c>
       <c r="H37" t="n">
-        <v>145.1153846153846</v>
+        <v>139.1923076923077</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01780205627724632</v>
+        <v>0.01469329172037356</v>
       </c>
       <c r="J37" t="n">
         <v>0.0297748243977408</v>
@@ -2992,10 +2992,10 @@
         <v>0.010350373769232</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0194729937941088</v>
+        <v>0.01454845027773694</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0402064108830216</v>
+        <v>0.02404937888662447</v>
       </c>
       <c r="N37" t="n">
         <v>0.0005871781310976001</v>
@@ -3241,10 +3241,10 @@
         <v>2.769605070861888</v>
       </c>
       <c r="C41" t="n">
-        <v>23.78260869565218</v>
+        <v>35.8</v>
       </c>
       <c r="D41" t="n">
-        <v>10.19057971014493</v>
+        <v>13.58126984126984</v>
       </c>
       <c r="E41" t="n">
         <v>0.6463243861869459</v>
@@ -3253,10 +3253,10 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>9.724137931034482</v>
+        <v>8.482758620689655</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2307692307692</v>
+        <v>214</v>
       </c>
       <c r="I41" t="n">
         <v>0.9012807916110277</v>
@@ -3289,7 +3289,7 @@
         <v>0.270101940304896</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3608698930704</v>
+        <v>0.443319488978688</v>
       </c>
       <c r="T41" t="n">
         <v>0.5740555895314037</v>
@@ -3307,61 +3307,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4658921950948696</v>
+        <v>0.4737679267187415</v>
       </c>
       <c r="C42" t="n">
-        <v>19.70782591381354</v>
+        <v>20.77792259511988</v>
       </c>
       <c r="D42" t="n">
-        <v>4.576167529651693</v>
+        <v>5.28507281326015</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1012813667936998</v>
+        <v>0.1097415049792067</v>
       </c>
       <c r="F42" t="n">
-        <v>92.91681250000001</v>
+        <v>89.80405882352942</v>
       </c>
       <c r="G42" t="n">
-        <v>5.131039330952656</v>
+        <v>4.660372795179657</v>
       </c>
       <c r="H42" t="n">
-        <v>176.4058158296843</v>
+        <v>177.8228867350064</v>
       </c>
       <c r="I42" t="n">
-        <v>0.121893523996436</v>
+        <v>0.1206161617497019</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1025246014961883</v>
+        <v>0.1082168091398914</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1603079915575359</v>
+        <v>0.1637338661690809</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1493150815516634</v>
+        <v>0.1527734189655372</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09103820196302935</v>
+        <v>0.09278929466199561</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1076360874717174</v>
+        <v>0.1137197844750741</v>
       </c>
       <c r="O42" t="n">
-        <v>0.06905813176902754</v>
+        <v>0.07256337989550583</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05993786851484061</v>
+        <v>0.05647662198388541</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3516912630542077</v>
+        <v>0.3511339210106302</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09204302638768609</v>
+        <v>0.099001566961888</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0726232657503325</v>
+        <v>0.09496094491356358</v>
       </c>
       <c r="T42" t="n">
-        <v>0.09665487221811792</v>
+        <v>0.1139856188529013</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3376,19 +3376,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01613195986984049</v>
+        <v>0.03869917919794855</v>
       </c>
       <c r="C43" t="n">
         <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>1.806169755231622</v>
+        <v>2.067343968795874</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001478441761253178</v>
+        <v>0.008538227524666707</v>
       </c>
       <c r="F43" t="n">
-        <v>76.667</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
         <v>2.347826086956522</v>
@@ -3397,40 +3397,40 @@
         <v>158.5862068965517</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00232771275095184</v>
+        <v>0.0069917692276992</v>
       </c>
       <c r="J43" t="n">
-        <v>0.00307534546162368</v>
+        <v>0.02087234762886</v>
       </c>
       <c r="K43" t="n">
-        <v>0.003974302415592126</v>
+        <v>0.01290079285532352</v>
       </c>
       <c r="L43" t="n">
-        <v>0.003317667648680814</v>
+        <v>0.007842215616293908</v>
       </c>
       <c r="M43" t="n">
-        <v>0.001549571984604917</v>
+        <v>0.0047137355524224</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0023517707438232</v>
+        <v>0.00642226080888</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.00117863776940112</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.003054079074183286</v>
+        <v>0.01486049986786176</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0036943290748224</v>
+        <v>0.005094993575044801</v>
       </c>
       <c r="S43" t="n">
-        <v>0.002552445542604568</v>
+        <v>0.0115967680891776</v>
       </c>
       <c r="T43" t="n">
-        <v>0.00232750886965632</v>
+        <v>0.0118740466510848</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4687,46 +4687,46 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.240391560347805</v>
+        <v>0.596291625007344</v>
       </c>
       <c r="C62" t="n">
-        <v>49.45454545454545</v>
+        <v>54.7</v>
       </c>
       <c r="D62" t="n">
-        <v>14.56017316017316</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.292984217705424</v>
       </c>
       <c r="F62" t="n">
-        <v>36.667</v>
+        <v>63.333</v>
       </c>
       <c r="G62" t="n">
-        <v>3.636363636363636</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>208.6363636363636</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.442585516314816</v>
+        <v>0.1509353618864112</v>
       </c>
       <c r="J62" t="n">
-        <v>0.190894056995376</v>
+        <v>0.264597145325856</v>
       </c>
       <c r="K62" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.5079906359176319</v>
       </c>
       <c r="L62" t="n">
-        <v>0.619717585862592</v>
+        <v>0.182636864526816</v>
       </c>
       <c r="M62" t="n">
-        <v>0.489280158168768</v>
+        <v>0.1029785889008291</v>
       </c>
       <c r="N62" t="n">
-        <v>0.19511439981264</v>
+        <v>0.2029679073160704</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>0.024832741794336</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0550479497904</v>
+        <v>0.009289647349073298</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4756,46 +4756,46 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.240391560347805</v>
+        <v>0.1955514010253804</v>
       </c>
       <c r="C63" t="n">
-        <v>49.45454545454545</v>
+        <v>41.00125313283208</v>
       </c>
       <c r="D63" t="n">
-        <v>14.56017316017316</v>
+        <v>18.16320185384095</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.09178577304717235</v>
       </c>
       <c r="F63" t="n">
-        <v>36.667</v>
+        <v>46.66657142857143</v>
       </c>
       <c r="G63" t="n">
-        <v>3.636363636363636</v>
+        <v>2.693609022556391</v>
       </c>
       <c r="H63" t="n">
-        <v>208.6363636363636</v>
+        <v>221.4639097744361</v>
       </c>
       <c r="I63" t="n">
-        <v>0.442585516314816</v>
+        <v>0.04042076002677159</v>
       </c>
       <c r="J63" t="n">
-        <v>0.190894056995376</v>
+        <v>0.05451817298176109</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.09875656002496827</v>
       </c>
       <c r="L63" t="n">
-        <v>0.619717585862592</v>
+        <v>0.07922985723081465</v>
       </c>
       <c r="M63" t="n">
-        <v>0.489280158168768</v>
+        <v>0.05593487958604949</v>
       </c>
       <c r="N63" t="n">
-        <v>0.19511439981264</v>
+        <v>0.06295976397784908</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>0.008958436359321175</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0550479497904</v>
+        <v>0.002518662147156004</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4825,43 +4825,43 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.240391560347805</v>
+        <v>0.0426261420586848</v>
       </c>
       <c r="C64" t="n">
-        <v>49.45454545454545</v>
+        <v>28.84210526315789</v>
       </c>
       <c r="D64" t="n">
-        <v>14.56017316017316</v>
+        <v>8.362280701754386</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.0128132598191136</v>
       </c>
       <c r="F64" t="n">
-        <v>36.667</v>
+        <v>33.333</v>
       </c>
       <c r="G64" t="n">
-        <v>3.636363636363636</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>208.6363636363636</v>
+        <v>197.9</v>
       </c>
       <c r="I64" t="n">
-        <v>0.442585516314816</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.190894056995376</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.005602673291986768</v>
       </c>
       <c r="L64" t="n">
-        <v>0.619717585862592</v>
+        <v>0.01170197083766592</v>
       </c>
       <c r="M64" t="n">
-        <v>0.489280158168768</v>
+        <v>0.0231785848833504</v>
       </c>
       <c r="N64" t="n">
-        <v>0.19511439981264</v>
+        <v>0.01723278848387956</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.0550479497904</v>
+        <v>0</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_30_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,7 +565,7 @@
         <v>6.583333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>239</v>
+        <v>200.5714285714286</v>
       </c>
       <c r="I2" t="n">
         <v>0.1780617682553472</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3106064139159565</v>
+        <v>0.4596759751339026</v>
       </c>
       <c r="C3" t="n">
-        <v>47.46710729746444</v>
+        <v>50.95238095238095</v>
       </c>
       <c r="D3" t="n">
-        <v>27.79829967486217</v>
+        <v>35.13545505420505</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1974998140397347</v>
+        <v>0.3100807170665894</v>
       </c>
       <c r="F3" t="n">
-        <v>47.517</v>
+        <v>50.83325</v>
       </c>
       <c r="G3" t="n">
-        <v>3.222634508348794</v>
+        <v>3.133928571428571</v>
       </c>
       <c r="H3" t="n">
-        <v>203.248840445269</v>
+        <v>188.6428571428572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1052618158122221</v>
+        <v>0.1310746732459214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1584461907013429</v>
+        <v>0.2570101398015696</v>
       </c>
       <c r="K3" t="n">
-        <v>0.173297644897032</v>
+        <v>0.2908565464855932</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09662240000551804</v>
+        <v>0.1441049307239002</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09924745792826084</v>
+        <v>0.1447863946868441</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07165080173423609</v>
+        <v>0.1017948726337032</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02935261536061826</v>
+        <v>0.045888582589164</v>
       </c>
       <c r="P3" t="n">
-        <v>0.026516218777344</v>
+        <v>0.046403382860352</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0140951877362784</v>
+        <v>0.0246665785384872</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02563731563825664</v>
+        <v>0.04486530236694912</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0206482238332848</v>
+        <v>0.0358713848370276</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0325843086500064</v>
+        <v>0.0520218416616444</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -706,16 +706,16 @@
         <v>162.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.04737548887739136</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01679818770048384</v>
+        <v>0.1289974432294656</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008554859160019199</v>
+        <v>0.018593974151424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0079618558490496</v>
+        <v>0.011091142476288</v>
       </c>
       <c r="M4" t="n">
         <v>0.002157434799866182</v>
@@ -724,19 +724,19 @@
         <v>0.005932945699632</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.0062632333983744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.009150192542937601</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.01074535979908608</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03225565200162854</v>
+        <v>0.7948353082106304</v>
       </c>
       <c r="C5" t="n">
-        <v>57.33333333333334</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
-        <v>17.51175213675214</v>
+        <v>63.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01405086110472437</v>
+        <v>0.4218184588121424</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>86.667</v>
       </c>
       <c r="G5" t="n">
-        <v>5.962962962962963</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>243.2307692307692</v>
+        <v>253.75</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003677447703553358</v>
+        <v>0.7075985794835328</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002815763796167613</v>
+        <v>0.4121011850086656</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009756943278405237</v>
+        <v>0.3855619567708272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01151684662133387</v>
+        <v>0.2178871249970419</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002852707086915893</v>
+        <v>0.2804509548654912</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005269740233434987</v>
+        <v>0.1362253264146432</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01305492711473683</v>
+        <v>0.038900551185216</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01894138787899029</v>
+        <v>0.02420213694729276</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01839922673794344</v>
+        <v>0.018593974151424</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0255593747315695</v>
+        <v>0.06405134780056337</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01040989934061737</v>
+        <v>0.09370506670876533</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007784269415471836</v>
+        <v>0.04044841798080392</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01665796539453802</v>
+        <v>0.1464804824437147</v>
       </c>
       <c r="C6" t="n">
-        <v>38.55256410256411</v>
+        <v>41.8951940869588</v>
       </c>
       <c r="D6" t="n">
-        <v>11.81615614323948</v>
+        <v>18.56151492881535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005961252498626564</v>
+        <v>0.05822155957084187</v>
       </c>
       <c r="F6" t="n">
-        <v>53.76425</v>
+        <v>54.31376470588236</v>
       </c>
       <c r="G6" t="n">
-        <v>4.587321937321937</v>
+        <v>3.191730393789217</v>
       </c>
       <c r="H6" t="n">
-        <v>200.1669515669516</v>
+        <v>208.0645284290873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00209124103034298</v>
+        <v>0.09486100135228367</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001814808575812192</v>
+        <v>0.08046799723587418</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003000969565018019</v>
+        <v>0.06243705026495631</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004345199722640481</v>
+        <v>0.04442663010938601</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002109269233899339</v>
+        <v>0.05231549036614636</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003113588495630861</v>
+        <v>0.0232142027052583</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005218922036367857</v>
+        <v>0.005553024504271776</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008270852215534464</v>
+        <v>0.002518801611451124</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007106744686286152</v>
+        <v>0.003573438728593465</v>
       </c>
       <c r="R6" t="n">
-        <v>0.009573545257041753</v>
+        <v>0.007803525799952388</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004265840384654273</v>
+        <v>0.007419802408725509</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003612144524598319</v>
+        <v>0.007758365417388056</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00179850486821376</v>
+        <v>0.0007714603176792624</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19.53846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>3.134940676607343</v>
+        <v>3.517825396825397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007403722712035999</v>
+        <v>0.000231235291666535</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>16.667</v>
       </c>
       <c r="G7" t="n">
-        <v>3.230769230769231</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>153.7333333333333</v>
+        <v>127.8888888888889</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00040551989678928</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00031479272028288</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000255422487027456</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.076493240345511e-05</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001098145433929822</v>
+        <v>1.100958995808e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00110829872244672</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00033395756206176</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00049706259847776</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.850411529472e-05</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>4.240730946816e-05</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00021774522361536</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00017615343932928</v>
+        <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.451195695158203</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C8" t="n">
-        <v>30.44444444444444</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D8" t="n">
-        <v>11.13888888888889</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3837026265692987</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>43.333</v>
       </c>
       <c r="G8" t="n">
-        <v>9.033333333333333</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0869565217391</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7589032686881857</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6645062288624256</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K8" t="n">
-        <v>0.59381883615168</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1335340933137792</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04887034653614401</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N8" t="n">
-        <v>0.041836441840704</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00041958770618016</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.016636713714432</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07082836206364801</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S8" t="n">
-        <v>0.371145510364608</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6795445132199808</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3767079429276419</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C9" t="n">
-        <v>21.53175298034743</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D9" t="n">
-        <v>5.174047649732525</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08522441862350393</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F9" t="n">
-        <v>86.28091666666667</v>
+        <v>43.333</v>
       </c>
       <c r="G9" t="n">
-        <v>4.603885400858789</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H9" t="n">
-        <v>129.1652056488545</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1918404071292701</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1540897982822465</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1137712494764664</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03887337329570822</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01468142837749036</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N9" t="n">
-        <v>0.007188212253954313</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O9" t="n">
-        <v>3.496564218168e-05</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00145612021260384</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R9" t="n">
-        <v>0.009195390760806657</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0407330027745655</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1291909426545095</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01493212547609479</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D10" t="n">
-        <v>1.86209037138385</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0021495293003498</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>43.333</v>
       </c>
       <c r="G10" t="n">
-        <v>2.444444444444445</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H10" t="n">
-        <v>96.20689655172414</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00672889827734208</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00681883905456576</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00387721059690384</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00175317526017648</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00020367741422448</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00260376802508592</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.663434869140399</v>
+        <v>1.417374611203219</v>
       </c>
       <c r="C11" t="n">
-        <v>29.88888888888889</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D11" t="n">
-        <v>14.13055555555555</v>
+        <v>22.17948717948718</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8745611349613118</v>
+        <v>0.2519624558073166</v>
       </c>
       <c r="F11" t="n">
-        <v>93.10300000000001</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>5.37037037037037</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>219.3333333333333</v>
+        <v>162.8461538461538</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.7589032686881857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.124530695303616</v>
+        <v>0.478855998787824</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3852255526332197</v>
+        <v>0.3318457810639528</v>
       </c>
       <c r="L11" t="n">
-        <v>1.287176270735767</v>
+        <v>0.104006644887936</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6693971843101855</v>
+        <v>0.04887034653614401</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5917147811819143</v>
+        <v>0.0003274741368642249</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7816350137321888</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04778977566988801</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1705201991340627</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3622807516353992</v>
+        <v>0.014001547969836</v>
       </c>
       <c r="S11" t="n">
-        <v>0.016147398605184</v>
+        <v>0.032478290376336</v>
       </c>
       <c r="T11" t="n">
-        <v>0.127955901068352</v>
+        <v>0.6795445132199808</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6229270738899297</v>
+        <v>0.3861086532269569</v>
       </c>
       <c r="C12" t="n">
-        <v>23.67708333333333</v>
+        <v>26.14563513115237</v>
       </c>
       <c r="D12" t="n">
-        <v>9.060707136983687</v>
+        <v>8.847202237491363</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2888887331947281</v>
+        <v>0.08525774207293878</v>
       </c>
       <c r="F12" t="n">
-        <v>78.27575</v>
+        <v>77.33340000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>3.18287037037037</v>
+        <v>3.834512231063955</v>
       </c>
       <c r="H12" t="n">
-        <v>210.9050925925926</v>
+        <v>136.809395814913</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1954998217081007</v>
       </c>
       <c r="J12" t="n">
-        <v>0.046133240143788</v>
+        <v>0.1460836932978429</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1757665745710309</v>
+        <v>0.103064350517264</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4266703876551846</v>
+        <v>0.03963858594118544</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2063534869213184</v>
+        <v>0.01506037897355072</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2255901147068966</v>
+        <v>6.549482737284498e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2473220283048272</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.012008608306128</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08350824953527568</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2185413800743658</v>
+        <v>0.004072528878012</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006053745367227617</v>
+        <v>0.008119272014802606</v>
       </c>
       <c r="T12" t="n">
-        <v>0.036780185711808</v>
+        <v>0.1504715452840608</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.114046666018432</v>
+        <v>0.07816010780420693</v>
       </c>
       <c r="C13" t="n">
-        <v>19.44444444444444</v>
+        <v>18.23333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>3.112823136679346</v>
+        <v>3.367849927849928</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01627905520207356</v>
+        <v>0.01387089372797073</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>43.333</v>
       </c>
       <c r="G13" t="n">
-        <v>1.625</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="H13" t="n">
-        <v>202.037037037037</v>
+        <v>122.6153846153846</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0215543305623744</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.03271544509928492</v>
       </c>
       <c r="K13" t="n">
-        <v>0.059237710413336</v>
+        <v>0.01794998959436215</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0663755945694912</v>
+        <v>0.007147262695749151</v>
       </c>
       <c r="M13" t="n">
-        <v>0.025063807262592</v>
+        <v>0.001604219585669579</v>
       </c>
       <c r="N13" t="n">
-        <v>0.043684965586752</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.012416370897168</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006850411529472</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.020673563365728</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.003180548210112</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.275791284342316</v>
+        <v>1.663434869140399</v>
       </c>
       <c r="C14" t="n">
-        <v>68.5</v>
+        <v>30.44444444444444</v>
       </c>
       <c r="D14" t="n">
-        <v>34.27291666666667</v>
+        <v>16.43452380952381</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7306720040936679</v>
+        <v>0.8745611349613118</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>173</v>
+        <v>228.7037037037037</v>
       </c>
       <c r="I14" t="n">
-        <v>0.487194743774592</v>
+        <v>0.05199136140796416</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9718491266070073</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2536155162311629</v>
+        <v>0.5920712821900801</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4433398771082422</v>
+        <v>1.287176270735767</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2909296379300391</v>
+        <v>0.6693971843101855</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03668395374032331</v>
+        <v>0.5917147811819143</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006948274551321956</v>
+        <v>0.7816350137321888</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.09393626809788543</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.2086602730869893</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.43977195443664</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.09982028228659201</v>
       </c>
       <c r="T14" t="n">
-        <v>0.180190288980576</v>
+        <v>0.159272068060224</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.013551006792669</v>
+        <v>0.4939444974761355</v>
       </c>
       <c r="C15" t="n">
-        <v>52.31666666666666</v>
+        <v>22.13959096459096</v>
       </c>
       <c r="D15" t="n">
-        <v>24.34756944444445</v>
+        <v>8.014536002762126</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5104600674066068</v>
+        <v>0.200131370913055</v>
       </c>
       <c r="F15" t="n">
-        <v>38.3335</v>
+        <v>84.74542857142856</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4875</v>
+        <v>3.678326501540787</v>
       </c>
       <c r="H15" t="n">
-        <v>166</v>
+        <v>208.0461945461946</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4369318879900472</v>
+        <v>0.007376245220899374</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6504234063943313</v>
+        <v>0.03429470354831201</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2296454835758694</v>
+        <v>0.1604023713196211</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2862442418776931</v>
+        <v>0.313747042404613</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1956440834184019</v>
+        <v>0.1403179024119603</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02017690852984165</v>
+        <v>0.1558467999660007</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003474137275660978</v>
+        <v>0.1478421107580508</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.03056062174520741</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.08783832903269502</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1329789911195626</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.01798658888743471</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1118268517797652</v>
+        <v>0.02718497590473993</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,47 +1509,47 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7513107292430209</v>
+        <v>0.0463958101265184</v>
       </c>
       <c r="C16" t="n">
-        <v>36.13333333333333</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>14.42222222222222</v>
+        <v>2.078996235246235</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2902481307195456</v>
+        <v>0.01627905520207356</v>
       </c>
       <c r="F16" t="n">
-        <v>26.667</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>2.375</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>159</v>
+        <v>187.9</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3866690322055024</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3289976861816553</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.205675450920576</v>
+        <v>0.00323437287212928</v>
       </c>
       <c r="L16" t="n">
-        <v>0.129148606647144</v>
+        <v>0.02257210598961024</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1003585289067648</v>
+        <v>0.025063807262592</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00366986331936</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.007523219804688001</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0434634145789544</v>
+        <v>0</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.708786224515866</v>
+        <v>0.2973740157818556</v>
       </c>
       <c r="C17" t="n">
-        <v>36.53333333333333</v>
+        <v>34.0625</v>
       </c>
       <c r="D17" t="n">
-        <v>10.96527777777778</v>
+        <v>6.760044642857143</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5300636404958092</v>
+        <v>0.05955673040840027</v>
       </c>
       <c r="F17" t="n">
-        <v>96.667</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>6.551724137931035</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="I17" t="n">
-        <v>0.56847930370848</v>
+        <v>0.001469535601849058</v>
       </c>
       <c r="J17" t="n">
-        <v>0.79146718920864</v>
+        <v>0.02318374987617031</v>
       </c>
       <c r="K17" t="n">
-        <v>0.661336554321408</v>
+        <v>0.04399812725667081</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5337298653182031</v>
+        <v>0.03094156909156999</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17109416146688</v>
+        <v>0.1830676365783506</v>
       </c>
       <c r="N17" t="n">
-        <v>0.47166481423584</v>
+        <v>0.07493357990937517</v>
       </c>
       <c r="O17" t="n">
-        <v>0.558145434615552</v>
+        <v>0.1127377118556301</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5251574410004161</v>
+        <v>0.05664393257173065</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7365823444546561</v>
+        <v>0.03103725737960069</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4341489083061991</v>
+        <v>0.05688078438532616</v>
       </c>
       <c r="S17" t="n">
-        <v>0.365579550996913</v>
+        <v>0.1135993957630158</v>
       </c>
       <c r="T17" t="n">
-        <v>0.400555387243369</v>
+        <v>0.01535030429221905</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5851638500402799</v>
+        <v>0.06794553811216798</v>
       </c>
       <c r="C18" t="n">
-        <v>22.91213051605101</v>
+        <v>22.59174671592775</v>
       </c>
       <c r="D18" t="n">
-        <v>6.275552459478579</v>
+        <v>4.136076021605424</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1719004969183763</v>
+        <v>0.01323480653323514</v>
       </c>
       <c r="F18" t="n">
-        <v>81.33329999999999</v>
+        <v>84.44433333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>3.946676872290992</v>
+        <v>5.448617952928298</v>
       </c>
       <c r="H18" t="n">
-        <v>164.5746172186704</v>
+        <v>226.9997030651341</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1889966270557309</v>
+        <v>0.0006033316461416517</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1833240071765022</v>
+        <v>0.005817340150755614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2036756724777247</v>
+        <v>0.01264769206654882</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1302792859046319</v>
+        <v>0.009299064855024375</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2247114408768975</v>
+        <v>0.03803289638931504</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1437184610187587</v>
+        <v>0.01937087586266279</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1629473933594911</v>
+        <v>0.02143818594164404</v>
       </c>
       <c r="P18" t="n">
-        <v>0.140280548828885</v>
+        <v>0.01236310749683254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1518773897085395</v>
+        <v>0.009762221971454597</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1382294406930073</v>
+        <v>0.01685183292268949</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1065995054336128</v>
+        <v>0.02481381481406858</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1110609608724311</v>
+        <v>0.003150504116774684</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1052497227388078</v>
+        <v>0.01023125272430287</v>
       </c>
       <c r="C19" t="n">
-        <v>18.89655172413793</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>2.531450845751049</v>
+        <v>1.99243931993932</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02086036786906372</v>
+        <v>0.001252820793503518</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>53.333</v>
       </c>
       <c r="G19" t="n">
-        <v>2.083333333333333</v>
+        <v>4.375</v>
       </c>
       <c r="H19" t="n">
-        <v>143.36</v>
+        <v>216.375</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01723612472326083</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0156528408340512</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0153400286749248</v>
+        <v>0.001161511740577441</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01343601723511567</v>
+        <v>0.001436466055715714</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0518123536304976</v>
+        <v>0.003733471624240996</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.00203403533684165</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.0009491489831638106</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.000988375744421858</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0095090236230528</v>
+        <v>0.0003367711239399382</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.0008143018943068831</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.001390307330409985</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01279375517517557</v>
+        <v>4.822812045525668e-05</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,50 +1785,50 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.976967371238029</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C20" t="n">
-        <v>30.38888888888889</v>
+        <v>68.5</v>
       </c>
       <c r="D20" t="n">
-        <v>13.29074074074074</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>1.029893487605879</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F20" t="n">
-        <v>93.333</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>4.578947368421052</v>
+        <v>3.476190476190476</v>
       </c>
       <c r="H20" t="n">
-        <v>244.421052631579</v>
+        <v>173</v>
       </c>
       <c r="I20" t="n">
-        <v>0.71929321059456</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J20" t="n">
-        <v>0.91257267874752</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K20" t="n">
-        <v>0.417711998261376</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L20" t="n">
-        <v>0.449272822807872</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M20" t="n">
-        <v>1.46165413348224</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N20" t="n">
-        <v>1.64088763666884</v>
+        <v>0.03668395374032331</v>
       </c>
       <c r="O20" t="n">
-        <v>0.77855470715904</v>
+        <v>0.006948274551321956</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05578192245427201</v>
+        <v>0.00148507135656768</v>
       </c>
       <c r="T20" t="n">
-        <v>0.131870421942336</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,50 +1854,50 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7126163559476358</v>
+        <v>0.6786143873325542</v>
       </c>
       <c r="C21" t="n">
-        <v>24.0720764716045</v>
+        <v>43.51269841269842</v>
       </c>
       <c r="D21" t="n">
-        <v>7.3984876331115</v>
+        <v>18.27545194003527</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2629388318090267</v>
+        <v>0.3409854870829256</v>
       </c>
       <c r="F21" t="n">
-        <v>77.41374999999999</v>
+        <v>48.889</v>
       </c>
       <c r="G21" t="n">
-        <v>3.432301111148365</v>
+        <v>2.817063492063492</v>
       </c>
       <c r="H21" t="n">
-        <v>193.4871454346569</v>
+        <v>155.7460317460317</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1176696888081667</v>
+        <v>0.292598338373437</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1768152074323436</v>
+        <v>0.4349656121027615</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1382631553493564</v>
+        <v>0.1538828155239456</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1413263622899007</v>
+        <v>0.1917904890715623</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3238749987241459</v>
+        <v>0.1313085250918835</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339777870627092</v>
+        <v>0.01469984140699225</v>
       </c>
       <c r="O21" t="n">
-        <v>0.123864683071584</v>
+        <v>0.002322615718563959</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01139166350588448</v>
+        <v>0.00049502378552256</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03524663648019805</v>
+        <v>0.07555791880460302</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,47 +1923,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0726921283636944</v>
+        <v>0.008741148412325759</v>
       </c>
       <c r="C22" t="n">
-        <v>19.53571428571428</v>
+        <v>25.90476190476191</v>
       </c>
       <c r="D22" t="n">
-        <v>4.561654908877131</v>
+        <v>6.131216931216931</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01810978663877938</v>
+        <v>0.002036326435563209</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>26.667</v>
       </c>
       <c r="G22" t="n">
-        <v>2.388888888888889</v>
+        <v>2.375</v>
       </c>
       <c r="H22" t="n">
-        <v>144.5555555555555</v>
+        <v>135.2380952380952</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.00393123914021664</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.004050023519621908</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02478524944549722</v>
+        <v>0.00235747942009776</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03133173610898444</v>
+        <v>0.00288298345930056</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00378240579448704</v>
+        <v>0.00263740843884672</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.003020052854278656</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.343028331038346</v>
+        <v>1.708786224515866</v>
       </c>
       <c r="C23" t="n">
-        <v>34.1875</v>
+        <v>22.79166666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>8.091145833333332</v>
+        <v>10.96527777777778</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4033111112171833</v>
+        <v>0.5300636404958092</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>93.333</v>
       </c>
       <c r="G23" t="n">
-        <v>4.476190476190476</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="H23" t="n">
-        <v>177.4285714285714</v>
+        <v>187.6428571428571</v>
       </c>
       <c r="I23" t="n">
-        <v>0.287513402942304</v>
+        <v>0.56847930370848</v>
       </c>
       <c r="J23" t="n">
-        <v>0.581672112830787</v>
+        <v>0.79146718920864</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2654045152561152</v>
+        <v>0.661336554321408</v>
       </c>
       <c r="L23" t="n">
-        <v>0.137456769439584</v>
+        <v>0.5337298653182031</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7665121186369921</v>
+        <v>1.17109416146688</v>
       </c>
       <c r="N23" t="n">
-        <v>1.461461902546464</v>
+        <v>0.4403835983232001</v>
       </c>
       <c r="O23" t="n">
-        <v>0.712279694028672</v>
+        <v>0.305985048316416</v>
       </c>
       <c r="P23" t="n">
-        <v>0.313895642582592</v>
+        <v>0.3379439510924149</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1132886806686432</v>
+        <v>0.1839335495663232</v>
       </c>
       <c r="R23" t="n">
-        <v>0.240314883029424</v>
+        <v>0.353713659597648</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1327124516928336</v>
+        <v>0.249489541327824</v>
       </c>
       <c r="T23" t="n">
-        <v>0.289980366618096</v>
+        <v>0.2703688394553949</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6864048737351152</v>
+        <v>0.6263956208500002</v>
       </c>
       <c r="C24" t="n">
-        <v>27.88482926065163</v>
+        <v>20.78644627594628</v>
       </c>
       <c r="D24" t="n">
-        <v>6.762481771765724</v>
+        <v>6.02538522475467</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1764126116516787</v>
+        <v>0.1901265349066596</v>
       </c>
       <c r="F24" t="n">
-        <v>66.6665</v>
+        <v>87.66659999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>3.823269110275689</v>
+        <v>3.839072853072853</v>
       </c>
       <c r="H24" t="n">
-        <v>165.8944235588972</v>
+        <v>159.8114877899878</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1829413903675745</v>
+        <v>0.2005339041140521</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2351985158985656</v>
+        <v>0.2304067087638898</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1567278588585919</v>
+        <v>0.2459494255807807</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08723897142134833</v>
+        <v>0.1824523568979058</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2881083540477933</v>
+        <v>0.2716289278023563</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5227830831216391</v>
+        <v>0.118070981500749</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4108101067047852</v>
+        <v>0.09939278398614568</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1235795635748533</v>
+        <v>0.05109103180101263</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04044923350598592</v>
+        <v>0.087767757949409</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1173295569755257</v>
+        <v>0.08496897892145318</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0917670439283004</v>
+        <v>0.05501657245901949</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1903074128391</v>
+        <v>0.1213779459286289</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2052233441477604</v>
+        <v>0.1052497227388078</v>
       </c>
       <c r="C25" t="n">
-        <v>22.625</v>
+        <v>19.5</v>
       </c>
       <c r="D25" t="n">
-        <v>4.586791383219955</v>
+        <v>3.483205782312925</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04305078856951004</v>
+        <v>0.02086036786906372</v>
       </c>
       <c r="F25" t="n">
-        <v>53.333</v>
+        <v>80</v>
       </c>
       <c r="G25" t="n">
-        <v>3.208333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3333333333333</v>
+        <v>143.36</v>
       </c>
       <c r="I25" t="n">
-        <v>0.097648946489304</v>
+        <v>0.02315180047786052</v>
       </c>
       <c r="J25" t="n">
-        <v>0.043671373500384</v>
+        <v>0.0156528408340512</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0687161518420608</v>
+        <v>0.0153400286749248</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03683808799973576</v>
+        <v>0.01343601723511567</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0193157139375648</v>
+        <v>0.0518123536304976</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07989816712435201</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1567961336074291</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.028380276336384</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.00122328777312</v>
+        <v>0.0122328777312</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02212112056392</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02415993351912</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04321631044878337</v>
+        <v>0.0211343350936032</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,65 +2199,65 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.582992630216</v>
+        <v>1.0275617294208</v>
       </c>
       <c r="C26" t="n">
-        <v>35.86666666666667</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>22.36666666666667</v>
+        <v>10.96527777777778</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4334532986126263</v>
+        <v>0.3742530079065362</v>
       </c>
       <c r="F26" t="n">
-        <v>86.20699999999999</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>4.333333333333333</v>
+        <v>9.9</v>
       </c>
       <c r="H26" t="n">
-        <v>181.6111111111111</v>
+        <v>201.1333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3809562783050304</v>
+        <v>0.510396435204768</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4982117475979637</v>
+        <v>0.383623045650432</v>
       </c>
       <c r="K26" t="n">
-        <v>0.55537264899648</v>
+        <v>0.5589295934444751</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6011480774666305</v>
+        <v>0.271304839948464</v>
       </c>
       <c r="M26" t="n">
-        <v>0.169139922763392</v>
+        <v>0.4537688131366802</v>
       </c>
       <c r="N26" t="n">
-        <v>0.069972060622464</v>
+        <v>0.47166481423584</v>
       </c>
       <c r="O26" t="n">
-        <v>1.099858036812192</v>
+        <v>0.558145434615552</v>
       </c>
       <c r="P26" t="n">
-        <v>0.078045759925056</v>
+        <v>0.5251574410004161</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.133583024824704</v>
+        <v>0.7365823444546561</v>
       </c>
       <c r="R26" t="n">
-        <v>0.62143018874496</v>
+        <v>0.4341489083061991</v>
       </c>
       <c r="S26" t="n">
-        <v>0.202331797674048</v>
+        <v>0.365579550996913</v>
       </c>
       <c r="T26" t="n">
-        <v>0.542130558852456</v>
+        <v>0.400555387243369</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2268,65 +2268,65 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5892238779585744</v>
+        <v>0.4813894211791871</v>
       </c>
       <c r="C27" t="n">
-        <v>26.60439682539683</v>
+        <v>23.17234098865543</v>
       </c>
       <c r="D27" t="n">
-        <v>10.43398616780046</v>
+        <v>6.429733878316917</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1999512959040896</v>
+        <v>0.1529830964766534</v>
       </c>
       <c r="F27" t="n">
-        <v>69.7932</v>
+        <v>80.58823529411765</v>
       </c>
       <c r="G27" t="n">
-        <v>3.201714285714286</v>
+        <v>4.390924808852525</v>
       </c>
       <c r="H27" t="n">
-        <v>164.421126984127</v>
+        <v>161.1453700501499</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1405001346229749</v>
+        <v>0.1707697992689837</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1932855067462401</v>
+        <v>0.1399412295690743</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2529078025819711</v>
+        <v>0.1584504139622273</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2460954404349191</v>
+        <v>0.1052531414436623</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06921598722615764</v>
+        <v>0.1647497814821076</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01877298192889057</v>
+        <v>0.1260145354912849</v>
       </c>
       <c r="O27" t="n">
-        <v>0.4090893689587259</v>
+        <v>0.1514192533534312</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03726982703112885</v>
+        <v>0.1541680073642701</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0724668453573247</v>
+        <v>0.1560963790495434</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1988442314170556</v>
+        <v>0.1502351959965841</v>
       </c>
       <c r="S27" t="n">
-        <v>0.06978501992195399</v>
+        <v>0.1009695227703849</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2078782193884533</v>
+        <v>0.09991225282489834</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2337,65 +2337,65 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09457774661402281</v>
+        <v>0.01632844519560576</v>
       </c>
       <c r="C28" t="n">
-        <v>20.32</v>
+        <v>18.06666666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>4.407539682539682</v>
+        <v>1.816244715323663</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03187481994528391</v>
+        <v>0.001726331157751389</v>
       </c>
       <c r="F28" t="n">
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>1.533333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>156.4761904761905</v>
+        <v>144.0384615384615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03856692724709237</v>
+        <v>0.00330165369965088</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03477251099083287</v>
+        <v>0.003532983855904573</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04935307471122904</v>
+        <v>0.00419016838552704</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05382466201728</v>
+        <v>0.00370807649932032</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001449596011147245</v>
+        <v>0.00193489174628352</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01946984819697792</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0060511968510336</v>
+        <v>0.0006646530233952001</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02200042283697229</v>
+        <v>0.00147738211913664</v>
       </c>
       <c r="R28" t="n">
-        <v>0.005627123756352</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.003914520873984</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.006383115600140196</v>
+        <v>0.00263193276976704</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -2406,65 +2406,65 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6308382127108494</v>
+        <v>3.91428786678912</v>
       </c>
       <c r="C29" t="n">
-        <v>34.0625</v>
+        <v>30.38888888888889</v>
       </c>
       <c r="D29" t="n">
-        <v>6.760044642857143</v>
+        <v>15.18421052631579</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1281503218610104</v>
+        <v>1.035701678586539</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>76.667</v>
       </c>
       <c r="G29" t="n">
-        <v>9.133333333333333</v>
+        <v>4.578947368421052</v>
       </c>
       <c r="H29" t="n">
-        <v>242</v>
+        <v>244.421052631579</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001469535601849058</v>
+        <v>0.71929321059456</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07671971597899417</v>
+        <v>0.91257267874752</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3543538468655814</v>
+        <v>1.17354073701312</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06199622434172195</v>
+        <v>0.8881069232851201</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1830676365783506</v>
+        <v>1.96990107731424</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3319809865546671</v>
+        <v>2.187075433302144</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2146992370602916</v>
+        <v>1.04468775824448</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05664393257173065</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03870482514151698</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05688078438532616</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1135993957630158</v>
+        <v>0.01924068562081342</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0268878652531776</v>
+        <v>0.099575624731968</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -2475,65 +2475,65 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1292368581010736</v>
+        <v>1.799811817371274</v>
       </c>
       <c r="C30" t="n">
-        <v>22.02998671406055</v>
+        <v>27.43096509389416</v>
       </c>
       <c r="D30" t="n">
-        <v>4.195568828515818</v>
+        <v>9.945848575891073</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02514960964261424</v>
+        <v>0.6064484572868346</v>
       </c>
       <c r="F30" t="n">
-        <v>85.33329999999999</v>
+        <v>66.66659999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>5.110557616795997</v>
+        <v>3.105673604300606</v>
       </c>
       <c r="H30" t="n">
-        <v>225.4354316495599</v>
+        <v>218.400831789619</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000551608592518591</v>
+        <v>0.1687778703588076</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01264714122297719</v>
+        <v>0.3506267662994461</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05560352246151042</v>
+        <v>0.4004823278374133</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01459861733545111</v>
+        <v>0.3590677921244786</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04739029985559901</v>
+        <v>0.8833956983852224</v>
       </c>
       <c r="N30" t="n">
-        <v>0.05157395378435144</v>
+        <v>0.9637640216022234</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04713371374499304</v>
+        <v>0.4005642220995072</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01595448882871097</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01504143798129854</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01691459916784988</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01916775728140595</v>
+        <v>0.005365013962831484</v>
       </c>
       <c r="T30" t="n">
-        <v>0.009705888052528512</v>
+        <v>0.03440296242705207</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -2544,29 +2544,29 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01023125272430287</v>
+        <v>0.1858048607406471</v>
       </c>
       <c r="C31" t="n">
-        <v>18.13333333333333</v>
+        <v>23.82608695652174</v>
       </c>
       <c r="D31" t="n">
-        <v>1.99243931993932</v>
+        <v>6.652569916855632</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001252820793503518</v>
+        <v>0.0481278083251732</v>
       </c>
       <c r="F31" t="n">
-        <v>53.333</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>4.269230769230769</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="H31" t="n">
-        <v>208.16</v>
+        <v>170.4782608695652</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2575,34 +2575,34 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001161511740577441</v>
+        <v>0.07676095825248759</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001436466055715714</v>
+        <v>0.08911756280416883</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003733471624240996</v>
+        <v>0.08468372714459606</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00203403533684165</v>
+        <v>0.03616248363818105</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0009491489831638106</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.000988375744421858</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0003367711239399382</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0008143018943068831</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.822812045525668e-05</v>
+        <v>0</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -2613,65 +2613,65 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.193321749564416</v>
+        <v>0.8513378287157903</v>
       </c>
       <c r="C32" t="n">
-        <v>60.66666666666666</v>
+        <v>39.14285714285715</v>
       </c>
       <c r="D32" t="n">
-        <v>29.78703703703703</v>
+        <v>17.19222222222222</v>
       </c>
       <c r="E32" t="n">
-        <v>1.774263382176432</v>
+        <v>0.1473287300879988</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>96.667</v>
       </c>
       <c r="G32" t="n">
-        <v>8.733333333333333</v>
+        <v>4.96551724137931</v>
       </c>
       <c r="H32" t="n">
-        <v>278</v>
+        <v>224.8965517241379</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02135126479203648</v>
+        <v>0.2781267080965632</v>
       </c>
       <c r="J32" t="n">
-        <v>0.049665483588672</v>
+        <v>0.4035687527911536</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5948848440682559</v>
+        <v>0.24037604741808</v>
       </c>
       <c r="L32" t="n">
-        <v>0.90767952765504</v>
+        <v>0.1560530736629568</v>
       </c>
       <c r="M32" t="n">
-        <v>0.902052403898688</v>
+        <v>0.3858043206608773</v>
       </c>
       <c r="N32" t="n">
-        <v>1.556609225539738</v>
+        <v>0.5223122775214353</v>
       </c>
       <c r="O32" t="n">
-        <v>2.411344858374144</v>
+        <v>0.513811446904728</v>
       </c>
       <c r="P32" t="n">
-        <v>2.403108054035136</v>
+        <v>0.2656051344509073</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.994165973214624</v>
+        <v>0.1532987538640792</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6655501010954881</v>
+        <v>0.1854341159013504</v>
       </c>
       <c r="S32" t="n">
-        <v>0.673664576657184</v>
+        <v>0.251630294930784</v>
       </c>
       <c r="T32" t="n">
-        <v>0.111074529799296</v>
+        <v>0.2834439322837248</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -2682,65 +2682,65 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2477118055108723</v>
+        <v>0.2926005013605956</v>
       </c>
       <c r="C33" t="n">
-        <v>25.33545098198494</v>
+        <v>26.89115804273188</v>
       </c>
       <c r="D33" t="n">
-        <v>8.570297255135152</v>
+        <v>7.090407501709597</v>
       </c>
       <c r="E33" t="n">
-        <v>0.105694257226433</v>
+        <v>0.06035537109664765</v>
       </c>
       <c r="F33" t="n">
-        <v>77.7778</v>
+        <v>71.66659999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>3.944677144306481</v>
+        <v>3.874753775709548</v>
       </c>
       <c r="H33" t="n">
-        <v>234.0083481217407</v>
+        <v>199.4312839132382</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0009993492700441063</v>
+        <v>0.07471050833545748</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003997841520022054</v>
+        <v>0.09036389790145259</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04597775835001109</v>
+        <v>0.07224385512756308</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05254477930244483</v>
+        <v>0.05033191152645063</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06021290034951324</v>
+        <v>0.0934756944989401</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1014817575758623</v>
+        <v>0.1503929409820594</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1348708466343825</v>
+        <v>0.1195555518918477</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1097153569808428</v>
+        <v>0.05440499963965399</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0570960446015711</v>
+        <v>0.04585571993157537</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03379527615195738</v>
+        <v>0.07058652378840455</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03266854714570853</v>
+        <v>0.06587603104653908</v>
       </c>
       <c r="T33" t="n">
-        <v>0.009895894206481874</v>
+        <v>0.09795486017916706</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -2751,65 +2751,65 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0002269135389401234</v>
+        <v>0.005403081260026318</v>
       </c>
       <c r="C34" t="n">
-        <v>18.1</v>
+        <v>18.89655172413793</v>
       </c>
       <c r="D34" t="n">
-        <v>1.930296571620101</v>
+        <v>3.549411603721949</v>
       </c>
       <c r="E34" t="n">
-        <v>5.106582284968535e-05</v>
+        <v>0.001155767235993003</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>46.66699999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>1.764705882352941</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>200.3461538461538</v>
+        <v>179.7142857142857</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.0004001374305875547</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.005530728679830144</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.001861990785221414</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.001436466055715714</v>
       </c>
       <c r="M34" t="n">
-        <v>2.100874421556308e-05</v>
+        <v>0.002099202594933024</v>
       </c>
       <c r="N34" t="n">
-        <v>5.749316612800388e-05</v>
+        <v>0.0006434765528338561</v>
       </c>
       <c r="O34" t="n">
-        <v>9.453993402070791e-05</v>
+        <v>0.000199151249463936</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0008549150483744641</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.0004185601444507391</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.005228065043164381</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.001229474114144064</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.00041469455508768</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -2820,65 +2820,65 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.448359131287712</v>
+        <v>1.582992630216</v>
       </c>
       <c r="C35" t="n">
-        <v>30.38888888888889</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D35" t="n">
-        <v>19.44907407407407</v>
+        <v>35.77272727272727</v>
       </c>
       <c r="E35" t="n">
-        <v>1.170028315360856</v>
+        <v>0.4334532986126263</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>86.20699999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>9.5</v>
+        <v>3.88</v>
       </c>
       <c r="H35" t="n">
-        <v>166.2777777777778</v>
+        <v>229.6111111111111</v>
       </c>
       <c r="I35" t="n">
-        <v>0.576413198694144</v>
+        <v>0.3809562783050304</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4074037599598849</v>
+        <v>0.4982117475979637</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5320384347242161</v>
+        <v>0.55537264899648</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9893601998202239</v>
+        <v>0.6011480774666305</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8095718482508161</v>
+        <v>0.169139922763392</v>
       </c>
       <c r="N35" t="n">
-        <v>0.424807067345472</v>
+        <v>0.069972060622464</v>
       </c>
       <c r="O35" t="n">
-        <v>0.07788092189762816</v>
+        <v>1.099858036812192</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06507890952998401</v>
+        <v>0.078045759925056</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.176031110551968</v>
+        <v>0.133583024824704</v>
       </c>
       <c r="R35" t="n">
-        <v>0.208203578985024</v>
+        <v>0.62143018874496</v>
       </c>
       <c r="S35" t="n">
-        <v>0.745471568939328</v>
+        <v>0.202331797674048</v>
       </c>
       <c r="T35" t="n">
-        <v>0.22416748442424</v>
+        <v>0.542130558852456</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2889,65 +2889,65 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3256155432072392</v>
+        <v>0.4828414070994332</v>
       </c>
       <c r="C36" t="n">
-        <v>22.26049971026151</v>
+        <v>30.43737614237614</v>
       </c>
       <c r="D36" t="n">
-        <v>8.47151864304969</v>
+        <v>15.00542042161983</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1928490813871153</v>
+        <v>0.1750175449789334</v>
       </c>
       <c r="F36" t="n">
-        <v>84.107125</v>
+        <v>63.81233333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>4.037448804094676</v>
+        <v>2.778575036075036</v>
       </c>
       <c r="H36" t="n">
-        <v>151.3486396417658</v>
+        <v>185.6520755170755</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1066096287636511</v>
+        <v>0.1122765825513288</v>
       </c>
       <c r="J36" t="n">
-        <v>0.09711356316908373</v>
+        <v>0.1649198447270313</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1167867476949579</v>
+        <v>0.2223129121997582</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1620289148788205</v>
+        <v>0.2048379003803588</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1741480175579483</v>
+        <v>0.05754277724324639</v>
       </c>
       <c r="N36" t="n">
-        <v>0.07316610438423971</v>
+        <v>0.01442174731990272</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01502876564957063</v>
+        <v>0.3428525146399728</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01274913575365098</v>
+        <v>0.0375598374945096</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04364675483394997</v>
+        <v>0.05441402459082961</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04268548001073514</v>
+        <v>0.1578306273008976</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1509651221842667</v>
+        <v>0.052275164171328</v>
       </c>
       <c r="T36" t="n">
-        <v>0.07404687587678654</v>
+        <v>0.1650818597487288</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2958,65 +2958,65 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.070234193716704</v>
+        <v>0.0272568903980688</v>
       </c>
       <c r="C37" t="n">
-        <v>17.7</v>
+        <v>20.32</v>
       </c>
       <c r="D37" t="n">
-        <v>1.908120711704303</v>
+        <v>5.121603174603174</v>
       </c>
       <c r="E37" t="n">
-        <v>0.009885827140006522</v>
+        <v>0.013863503342661</v>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>36.667</v>
       </c>
       <c r="G37" t="n">
-        <v>1.611111111111111</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="H37" t="n">
-        <v>139.1923076923077</v>
+        <v>156.4761904761905</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01469329172037356</v>
+        <v>0.0049298497256736</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0297748243977408</v>
+        <v>0.0030582194328</v>
       </c>
       <c r="K37" t="n">
-        <v>0.010350373769232</v>
+        <v>0.0182106773158464</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01454845027773694</v>
+        <v>0.0111482292390336</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02404937888662447</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0005871781310976001</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.007647296135961601</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.007297785343641601</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0088606811032992</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.005627123756352</v>
       </c>
       <c r="S37" t="n">
-        <v>0.009800981638237441</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01475507470341469</v>
+        <v>0.006491580449356801</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3027,65 +3027,65 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.708786224515866</v>
+        <v>0.493283998467456</v>
       </c>
       <c r="C38" t="n">
-        <v>22.75</v>
+        <v>49.81818181818182</v>
       </c>
       <c r="D38" t="n">
-        <v>9.046527777777778</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5300636404958092</v>
+        <v>0.1784930412723506</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>11.96666666666667</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>163.1851851851852</v>
+        <v>274.6086956521739</v>
       </c>
       <c r="I38" t="n">
-        <v>0.56847930370848</v>
+        <v>0.02081546474740992</v>
       </c>
       <c r="J38" t="n">
-        <v>0.79146718920864</v>
+        <v>0.06869984133841921</v>
       </c>
       <c r="K38" t="n">
-        <v>0.661336554321408</v>
+        <v>0.2896011474084288</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5337298653182031</v>
+        <v>0.04634901451488</v>
       </c>
       <c r="M38" t="n">
-        <v>1.17109416146688</v>
+        <v>0.138093898488084</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4403835983232001</v>
+        <v>0.2687318579990016</v>
       </c>
       <c r="O38" t="n">
-        <v>0.305985048316416</v>
+        <v>0.123164690623632</v>
       </c>
       <c r="P38" t="n">
-        <v>0.426682775264256</v>
+        <v>0.05658134101400615</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.334446877171008</v>
+        <v>0.1060345841740416</v>
       </c>
       <c r="R38" t="n">
-        <v>0.782170202132928</v>
+        <v>0.04452767494156801</v>
       </c>
       <c r="S38" t="n">
-        <v>0.305577285725376</v>
+        <v>0.1083845199862052</v>
       </c>
       <c r="T38" t="n">
-        <v>0.291876462666432</v>
+        <v>0.0268878652531776</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3096,65 +3096,65 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4800147693132945</v>
+        <v>0.1201528110890067</v>
       </c>
       <c r="C39" t="n">
-        <v>19.91680590057027</v>
+        <v>23.47020002314196</v>
       </c>
       <c r="D39" t="n">
-        <v>5.006574285785574</v>
+        <v>7.028179351744537</v>
       </c>
       <c r="E39" t="n">
-        <v>0.132458593690261</v>
+        <v>0.03627586411592131</v>
       </c>
       <c r="F39" t="n">
-        <v>91.11108333333334</v>
+        <v>81.8749375</v>
       </c>
       <c r="G39" t="n">
-        <v>5.071125584185929</v>
+        <v>4.337979683095529</v>
       </c>
       <c r="H39" t="n">
-        <v>152.1001158313802</v>
+        <v>236.6806047225827</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1126109208328925</v>
+        <v>0.002296053808531875</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1813484515831882</v>
+        <v>0.01225601709982507</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1749482800312921</v>
+        <v>0.0498360452436695</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1365457007607355</v>
+        <v>0.01408783473949126</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2392999148649201</v>
+        <v>0.04688394971009058</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07880500830917354</v>
+        <v>0.05528228367973046</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05147414004639186</v>
+        <v>0.0395281981403476</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04011753902630444</v>
+        <v>0.01917559673151701</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.05999251537672525</v>
+        <v>0.01853761913828595</v>
       </c>
       <c r="R39" t="n">
-        <v>0.133871465887541</v>
+        <v>0.01292883793144797</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07756220631389257</v>
+        <v>0.009469241285264466</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1062205713848878</v>
+        <v>0.00545787361026322</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -3165,65 +3165,65 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.070234193716704</v>
+        <v>0.001845362968145332</v>
       </c>
       <c r="C40" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="D40" t="n">
-        <v>1.496743688314896</v>
+        <v>1.99243931993932</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009885827140006522</v>
+        <v>0.0005932799099271888</v>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>36.667</v>
       </c>
       <c r="G40" t="n">
-        <v>2.458333333333333</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1923076923077</v>
+        <v>208.16</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01780205627724632</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0297748243977408</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.010350373769232</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0194729937941088</v>
+        <v>0.00015256146084768</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0400993732028736</v>
+        <v>0.001239702070875683</v>
       </c>
       <c r="N40" t="n">
-        <v>0.009040096643356799</v>
+        <v>0.000889105941633168</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0006745208780983681</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.000651828889906992</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.002586030352375698</v>
+        <v>2.201917991616e-05</v>
       </c>
       <c r="R40" t="n">
-        <v>0.005841199116648</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.00489315109248</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01475507470341469</v>
+        <v>0</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -3234,65 +3234,65 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.769605070861888</v>
+        <v>4.193321749564416</v>
       </c>
       <c r="C41" t="n">
-        <v>35.8</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="D41" t="n">
-        <v>13.58126984126984</v>
+        <v>31.78571428571428</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6463243861869459</v>
+        <v>1.774263382176432</v>
       </c>
       <c r="F41" t="n">
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>8.482758620689655</v>
+        <v>6.107142857142857</v>
       </c>
       <c r="H41" t="n">
-        <v>214</v>
+        <v>269.16</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9012807916110277</v>
+        <v>0.009830340544792392</v>
       </c>
       <c r="J41" t="n">
-        <v>0.394116136326528</v>
+        <v>0.06869984133841921</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9894466577530612</v>
+        <v>0.558797854761216</v>
       </c>
       <c r="L41" t="n">
-        <v>1.27405421570448</v>
+        <v>0.843823905898176</v>
       </c>
       <c r="M41" t="n">
-        <v>0.417385788188544</v>
+        <v>0.8580140440663682</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8269425346291199</v>
+        <v>1.542321224349696</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6768859011264</v>
+        <v>2.394402322716432</v>
       </c>
       <c r="P41" t="n">
-        <v>0.29277354036672</v>
+        <v>2.281676354423424</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.34198444163824</v>
+        <v>0.994165973214624</v>
       </c>
       <c r="R41" t="n">
-        <v>0.270101940304896</v>
+        <v>0.487113191256384</v>
       </c>
       <c r="S41" t="n">
-        <v>0.443319488978688</v>
+        <v>0.673664576657184</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5740555895314037</v>
+        <v>0.1100958995808</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -3303,65 +3303,65 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4737679267187415</v>
+        <v>0.4416313409087406</v>
       </c>
       <c r="C42" t="n">
-        <v>20.77792259511988</v>
+        <v>26.71584310859783</v>
       </c>
       <c r="D42" t="n">
-        <v>5.28507281326015</v>
+        <v>11.46490861450958</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1097415049792067</v>
+        <v>0.2028644678096335</v>
       </c>
       <c r="F42" t="n">
-        <v>89.80405882352942</v>
+        <v>74.38584210526315</v>
       </c>
       <c r="G42" t="n">
-        <v>4.660372795179657</v>
+        <v>3.15311201880183</v>
       </c>
       <c r="H42" t="n">
-        <v>177.8228867350064</v>
+        <v>234.6949466515548</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1206161617497019</v>
+        <v>0.0007351766365750219</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1082168091398914</v>
+        <v>0.008510597603821267</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1637338661690809</v>
+        <v>0.1029807677783798</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1527734189655372</v>
+        <v>0.1349820029077264</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09278929466199561</v>
+        <v>0.106014432209045</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1137197844750741</v>
+        <v>0.1648971006576455</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07256337989550583</v>
+        <v>0.1952235797468161</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05647662198388541</v>
+        <v>0.1435605472842362</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3511339210106302</v>
+        <v>0.06633974490516588</v>
       </c>
       <c r="R42" t="n">
-        <v>0.099001566961888</v>
+        <v>0.05388986478852942</v>
       </c>
       <c r="S42" t="n">
-        <v>0.09496094491356358</v>
+        <v>0.0415885071625194</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1139856188529013</v>
+        <v>0.01188942573912371</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3372,65 +3372,65 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03869917919794855</v>
+        <v>0.009787261242574126</v>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>2.067343968795874</v>
+        <v>2.925068681318681</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008538227524666707</v>
+        <v>0.002208308928844023</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>2.347826086956522</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="H43" t="n">
-        <v>158.5862068965517</v>
+        <v>199.3125</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0069917692276992</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02087234762886</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01290079285532352</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.007842215616293908</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0047137355524224</v>
+        <v>0.003676412613899165</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00642226080888</v>
+        <v>0.001829977344198864</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.0052112059134912</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01486049986786176</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.005094993575044801</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0115967680891776</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0118740466510848</v>
+        <v>0</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -3441,65 +3441,65 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.067044798593216</v>
+        <v>8.030819846965795</v>
       </c>
       <c r="C44" t="n">
-        <v>32.1764705882353</v>
+        <v>36.46666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>20.1078431372549</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="E44" t="n">
-        <v>0.831552193634496</v>
+        <v>3.984095902609924</v>
       </c>
       <c r="F44" t="n">
-        <v>73.333</v>
+        <v>96.667</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3.620689655172414</v>
       </c>
       <c r="H44" t="n">
-        <v>253.6470588235294</v>
+        <v>209.1052631578947</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.73160159737696</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.4074037599598849</v>
       </c>
       <c r="K44" t="n">
-        <v>7.339726638720001e-05</v>
+        <v>0.6047934750305279</v>
       </c>
       <c r="L44" t="n">
-        <v>0.07376425271913602</v>
+        <v>1.7309521989648</v>
       </c>
       <c r="M44" t="n">
-        <v>0.5165008810529845</v>
+        <v>3.803980142485702</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6573433424210829</v>
+        <v>4.39350599759232</v>
       </c>
       <c r="O44" t="n">
-        <v>0.165062296852992</v>
+        <v>4.3793702277696</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0133583024824704</v>
+        <v>15.43299854568192</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.99453295954656</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.14622064341344</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.9076795276550401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.92545495489088</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -3510,65 +3510,65 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5198040799309184</v>
+        <v>1.82211983338163</v>
       </c>
       <c r="C45" t="n">
-        <v>27.66416263475087</v>
+        <v>26.27258832347209</v>
       </c>
       <c r="D45" t="n">
-        <v>17.95399725546784</v>
+        <v>13.20786265728498</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3835554598922231</v>
+        <v>0.9998873541790171</v>
       </c>
       <c r="F45" t="n">
-        <v>66.66666666666667</v>
+        <v>73.254</v>
       </c>
       <c r="G45" t="n">
-        <v>1.873949579831933</v>
+        <v>2.41946038901377</v>
       </c>
       <c r="H45" t="n">
-        <v>249.942237501061</v>
+        <v>162.9056199070955</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.603849990670716</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.1259462065443327</v>
       </c>
       <c r="K45" t="n">
-        <v>2.44657554624e-05</v>
+        <v>0.2768056116699391</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04348788033441601</v>
+        <v>0.5704700474558969</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2275953526388352</v>
+        <v>0.9458378744690775</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3257672288616519</v>
+        <v>0.8406732716048122</v>
       </c>
       <c r="O45" t="n">
-        <v>0.102829065359545</v>
+        <v>0.7353588867804565</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0044527674941568</v>
+        <v>2.583012909201984</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.1855325905670866</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.2177115832015993</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.3444745748098637</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.4040575770169748</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -3579,50 +3579,50 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.153151180875449</v>
+        <v>0.06363706100806657</v>
       </c>
       <c r="C46" t="n">
-        <v>24.86363636363636</v>
+        <v>18.6551724137931</v>
       </c>
       <c r="D46" t="n">
-        <v>15.74621212121212</v>
+        <v>5.021674876847291</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1087775289853148</v>
+        <v>0.01970902761802322</v>
       </c>
       <c r="F46" t="n">
-        <v>56.667</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>1.764705882352941</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>247.952380952381</v>
+        <v>139.1923076923077</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.01469329172037356</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0149913916595856</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.02985384878788451</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0235238238770976</v>
+        <v>0.01454845027773694</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06641840964155041</v>
+        <v>0.02404937888662447</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1001243566759104</v>
+        <v>0.0027401646117888</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0244063386277056</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.01641325981454219</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0191077550161344</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3648,65 +3648,65 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.324832891166691</v>
+        <v>1.708786224515866</v>
       </c>
       <c r="C47" t="n">
-        <v>42.5</v>
+        <v>28.63157894736842</v>
       </c>
       <c r="D47" t="n">
-        <v>20.77777777777778</v>
+        <v>8.065789473684211</v>
       </c>
       <c r="E47" t="n">
-        <v>1.006105261880275</v>
+        <v>0.5300636404958092</v>
       </c>
       <c r="F47" t="n">
-        <v>66.667</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>2.25</v>
+        <v>12.6</v>
       </c>
       <c r="H47" t="n">
-        <v>247.05</v>
+        <v>168.2333333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06965400580145281</v>
+        <v>0.56847930370848</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2627744465439072</v>
+        <v>0.79146718920864</v>
       </c>
       <c r="K47" t="n">
-        <v>0.488010268956672</v>
+        <v>0.661336554321408</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1837486971917184</v>
+        <v>0.5337298653182031</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5928196464748123</v>
+        <v>1.17109416146688</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8472491116629121</v>
+        <v>1.461461902546464</v>
       </c>
       <c r="O47" t="n">
-        <v>0.219947141606976</v>
+        <v>0.712279694028672</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.426682775264256</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.334446877171008</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.782170202132928</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>0.249489541327824</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0016392056159808</v>
+        <v>0.291876462666432</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -3717,65 +3717,65 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9310269942115126</v>
+        <v>0.5424067667041428</v>
       </c>
       <c r="C48" t="n">
-        <v>34.9</v>
+        <v>20.36872353297036</v>
       </c>
       <c r="D48" t="n">
-        <v>19.57222222222222</v>
+        <v>4.950067030693391</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6381473506205826</v>
+        <v>0.1510171369821218</v>
       </c>
       <c r="F48" t="n">
-        <v>54.762</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>5.572507734361938</v>
       </c>
       <c r="H48" t="n">
-        <v>232.15</v>
+        <v>153.896320374076</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03482700290072641</v>
+        <v>0.1255994007092908</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1313872232719536</v>
+        <v>0.181761324070623</v>
       </c>
       <c r="K48" t="n">
-        <v>0.244005134478336</v>
+        <v>0.1809185199011122</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1090003774195392</v>
+        <v>0.1336412466906337</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3494311929503374</v>
+        <v>0.280260996758576</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5111838247680662</v>
+        <v>0.1934109772879794</v>
       </c>
       <c r="O48" t="n">
-        <v>0.116181756252072</v>
+        <v>0.1101826240423266</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.06631917551798844</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.04704276224865131</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>0.1058334666284924</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.05990571782859725</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0008196028079904</v>
+        <v>0.1148501139992419</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -3786,65 +3786,65 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5372210972563344</v>
+        <v>0.007099684956626573</v>
       </c>
       <c r="C49" t="n">
-        <v>27.3</v>
+        <v>17.7</v>
       </c>
       <c r="D49" t="n">
-        <v>18.36666666666667</v>
+        <v>1.444973166219969</v>
       </c>
       <c r="E49" t="n">
-        <v>0.27018943936089</v>
+        <v>0.0005511974507860164</v>
       </c>
       <c r="F49" t="n">
-        <v>42.857</v>
+        <v>63.333</v>
       </c>
       <c r="G49" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="H49" t="n">
-        <v>217.25</v>
+        <v>140.1923076923077</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0009921428434360026</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.00105812435114443</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.001310847993502656</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03425205764736</v>
+        <v>0.001183261797183514</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1060427394258624</v>
+        <v>0.0009466226279801906</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1751185378732205</v>
+        <v>0.0008132906430811008</v>
       </c>
       <c r="O49" t="n">
-        <v>0.012416370897168</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.0004577237025071761</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.000666661254156072</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.001091379711553876</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>0.001378330760593152</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -3855,65 +3855,65 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.66439628271616</v>
+        <v>2.769605070861888</v>
       </c>
       <c r="C50" t="n">
-        <v>21.07692307692308</v>
+        <v>35.8</v>
       </c>
       <c r="D50" t="n">
-        <v>7.573456790123457</v>
+        <v>13.58126984126984</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5570731700242987</v>
+        <v>0.6463243861869459</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>8.366666666666667</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>115.4074074074074</v>
+        <v>214</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8629615635043201</v>
+        <v>0.9012807916110277</v>
       </c>
       <c r="J50" t="n">
-        <v>0.63803195138016</v>
+        <v>0.394116136326528</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3832968355776</v>
+        <v>0.9894466577530612</v>
       </c>
       <c r="L50" t="n">
-        <v>0.61898361319872</v>
+        <v>1.27405421570448</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06562938902788801</v>
+        <v>0.417385788188544</v>
       </c>
       <c r="N50" t="n">
-        <v>0.08665325752864582</v>
+        <v>0.8269425346291199</v>
       </c>
       <c r="O50" t="n">
-        <v>0.11468322873</v>
+        <v>0.6768859011264</v>
       </c>
       <c r="P50" t="n">
-        <v>0.119148229101888</v>
+        <v>0.29277354036672</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04330438716844801</v>
+        <v>2.34198444163824</v>
       </c>
       <c r="R50" t="n">
-        <v>0.10214452905552</v>
+        <v>0.270101940304896</v>
       </c>
       <c r="S50" t="n">
-        <v>0.41661686444544</v>
+        <v>0.443319488978688</v>
       </c>
       <c r="T50" t="n">
-        <v>0.74158423223808</v>
+        <v>0.5740555895314037</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -3924,65 +3924,65 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8373667371023176</v>
+        <v>0.761696660956767</v>
       </c>
       <c r="C51" t="n">
-        <v>19.51159986246193</v>
+        <v>20.55945370721233</v>
       </c>
       <c r="D51" t="n">
-        <v>4.23441922408158</v>
+        <v>4.400693375267646</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2089360876246486</v>
+        <v>0.1606815710505989</v>
       </c>
       <c r="F51" t="n">
-        <v>93.3335</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
-        <v>5.414832007073386</v>
+        <v>5.70356827080965</v>
       </c>
       <c r="H51" t="n">
-        <v>107.1277139208174</v>
+        <v>179.2108222811671</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3489053210801818</v>
+        <v>0.2040688776756603</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2506735541106233</v>
+        <v>0.1658139393213965</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1704412011285572</v>
+        <v>0.2637691061373119</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1831662762908497</v>
+        <v>0.2553834600178405</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01951296909098044</v>
+        <v>0.1358861868703327</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04006462070931908</v>
+        <v>0.1786871562125137</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03463433507646</v>
+        <v>0.1230687746681547</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03088801627128</v>
+        <v>0.07647069245205591</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0147813939252</v>
+        <v>0.4959151822161779</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04277891311178868</v>
+        <v>0.1309348776667633</v>
       </c>
       <c r="S51" t="n">
-        <v>0.267431049345322</v>
+        <v>0.1605999265498163</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3234781059473021</v>
+        <v>0.1814309049445366</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -3993,47 +3993,47 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5020617678439104</v>
+        <v>0.04226442945625974</v>
       </c>
       <c r="C52" t="n">
-        <v>18.03333333333333</v>
+        <v>18</v>
       </c>
       <c r="D52" t="n">
-        <v>2.130929163429164</v>
+        <v>1.888700781789017</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06060266017904435</v>
+        <v>0.004369504185862758</v>
       </c>
       <c r="F52" t="n">
-        <v>86.667</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>2.666666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
-        <v>90.5</v>
+        <v>166.5</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08161077000672001</v>
+        <v>0.003922633203426814</v>
       </c>
       <c r="J52" t="n">
-        <v>0.08754153126389999</v>
+        <v>0.005601074922595003</v>
       </c>
       <c r="K52" t="n">
-        <v>0.07374266528784565</v>
+        <v>0.009593255724001961</v>
       </c>
       <c r="L52" t="n">
-        <v>0.018403684942272</v>
+        <v>0.003475038645598908</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.008085769075286811</v>
       </c>
       <c r="N52" t="n">
-        <v>0.002654534467670489</v>
+        <v>0.008935437578323201</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.01083394622198955</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.006481065999687859</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1342272897185476</v>
+        <v>0.006121157261296347</v>
       </c>
       <c r="T52" t="n">
-        <v>0.114193913620752</v>
+        <v>0.008977852883136316</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -4062,65 +4062,65 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.769605070861888</v>
+        <v>0.6308382127108494</v>
       </c>
       <c r="C53" t="n">
-        <v>35.8</v>
+        <v>23.73913043478261</v>
       </c>
       <c r="D53" t="n">
-        <v>13.58126984126984</v>
+        <v>5.750862663906142</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6463243861869459</v>
+        <v>0.1281503218610104</v>
       </c>
       <c r="F53" t="n">
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>6.307692307692307</v>
+        <v>4.92</v>
       </c>
       <c r="H53" t="n">
-        <v>214</v>
+        <v>238.8666666666667</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9012807916110277</v>
+        <v>0.0010642603626144</v>
       </c>
       <c r="J53" t="n">
-        <v>0.394116136326528</v>
+        <v>0.07671971597899417</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9894466577530612</v>
+        <v>0.3543538468655814</v>
       </c>
       <c r="L53" t="n">
-        <v>1.27405421570448</v>
+        <v>0.06199622434172195</v>
       </c>
       <c r="M53" t="n">
-        <v>0.417385788188544</v>
+        <v>0.1571525610343767</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8269425346291199</v>
+        <v>0.3319809865546671</v>
       </c>
       <c r="O53" t="n">
-        <v>0.6768859011264</v>
+        <v>0.2146992370602916</v>
       </c>
       <c r="P53" t="n">
-        <v>0.29277354036672</v>
+        <v>0.05250045300287784</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.34198444163824</v>
+        <v>0.03870482514151698</v>
       </c>
       <c r="R53" t="n">
-        <v>0.285305659770816</v>
+        <v>0.02716223122514904</v>
       </c>
       <c r="S53" t="n">
-        <v>0.443319488978688</v>
+        <v>0.0191811522825216</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5740555895314037</v>
+        <v>0.0268878652531776</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -4131,65 +4131,65 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.634042786480595</v>
+        <v>0.2211738380844319</v>
       </c>
       <c r="C54" t="n">
-        <v>22.05654427582999</v>
+        <v>21.18734671125976</v>
       </c>
       <c r="D54" t="n">
-        <v>5.037722382792753</v>
+        <v>4.284808038881408</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1342857366631058</v>
+        <v>0.04302181430668289</v>
       </c>
       <c r="F54" t="n">
-        <v>85.00007142857143</v>
+        <v>86.66675000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>4.712336182336182</v>
+        <v>4.603467112597547</v>
       </c>
       <c r="H54" t="n">
-        <v>172.9901680330252</v>
+        <v>223.0890245261984</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1810728355449005</v>
+        <v>0.000474024012084</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1656098906503692</v>
+        <v>0.02289184283130954</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2179220677800369</v>
+        <v>0.1200372680539528</v>
       </c>
       <c r="L54" t="n">
-        <v>0.182637733742873</v>
+        <v>0.02254794605609121</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1333547414666224</v>
+        <v>0.06142640505502495</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1221806866767041</v>
+        <v>0.09987857066688442</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1506486319701617</v>
+        <v>0.08567700545001654</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06268131792128764</v>
+        <v>0.02134156082652862</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3644137265428079</v>
+        <v>0.02296026199606445</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1297589082458278</v>
+        <v>0.01700874853559046</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1511987681985375</v>
+        <v>0.010698670982412</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1845932053040793</v>
+        <v>0.01953896395615925</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -4200,65 +4200,65 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1726772318743111</v>
+        <v>0.04816456267747868</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D55" t="n">
-        <v>2.905323095707712</v>
+        <v>3.410113997113996</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03975466451261615</v>
+        <v>0.009832362473168182</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>76.667</v>
       </c>
       <c r="G55" t="n">
-        <v>2.538461538461538</v>
+        <v>4.269230769230769</v>
       </c>
       <c r="H55" t="n">
-        <v>154.3461538461538</v>
+        <v>208.16</v>
       </c>
       <c r="I55" t="n">
-        <v>0.028571873783849</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06656745759917002</v>
+        <v>0.0024343426685088</v>
       </c>
       <c r="K55" t="n">
-        <v>0.06658661171035452</v>
+        <v>0.0225574265363328</v>
       </c>
       <c r="L55" t="n">
-        <v>0.035353016643168</v>
+        <v>0.0024649248628368</v>
       </c>
       <c r="M55" t="n">
-        <v>0.025811372012832</v>
+        <v>0.0164986569514656</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01424946762518837</v>
+        <v>0.01173244182401455</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>0.01896096048336</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.009052329521088</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>0.0129607339562064</v>
       </c>
       <c r="R55" t="n">
-        <v>0.01838356865444736</v>
+        <v>0.0107771652811872</v>
       </c>
       <c r="S55" t="n">
-        <v>0.03779469903831559</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0.02099797928315949</v>
+        <v>0.008889224484672</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -4269,53 +4269,53 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1034152192298484</v>
+        <v>1.324832891166691</v>
       </c>
       <c r="C56" t="n">
-        <v>34.1875</v>
+        <v>45.5</v>
       </c>
       <c r="D56" t="n">
-        <v>20.59270833333333</v>
+        <v>26.81944444444444</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06770836659830544</v>
+        <v>1.006105261880275</v>
       </c>
       <c r="F56" t="n">
-        <v>53.333</v>
+        <v>83.333</v>
       </c>
       <c r="G56" t="n">
-        <v>2.3125</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
-        <v>240.6875</v>
+        <v>249.7619047619048</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.05175852896848035</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>0.09092575688823663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0197089135789248</v>
+        <v>0.0529928263315585</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.5928196464748123</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.8472491116629121</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.219947141606976</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.001268549420725449</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -4338,53 +4338,53 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1034152192298484</v>
+        <v>0.3593662763080637</v>
       </c>
       <c r="C57" t="n">
-        <v>34.1875</v>
+        <v>28.56079158936302</v>
       </c>
       <c r="D57" t="n">
-        <v>20.59270833333333</v>
+        <v>15.77390898783756</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06770836659830544</v>
+        <v>0.2432023077149235</v>
       </c>
       <c r="F57" t="n">
-        <v>53.333</v>
+        <v>66.66671428571429</v>
       </c>
       <c r="G57" t="n">
-        <v>2.3125</v>
+        <v>2.143333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>240.6875</v>
+        <v>245.217501546073</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.007394075566925764</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.01464374492482466</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0197089135789248</v>
+        <v>0.02518574769457921</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.145760988242593</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.2340714163765604</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.07215518824815005</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.0001812213458179213</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -4407,29 +4407,29 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1034152192298484</v>
+        <v>0.1135985802378336</v>
       </c>
       <c r="C58" t="n">
-        <v>34.1875</v>
+        <v>21.8</v>
       </c>
       <c r="D58" t="n">
-        <v>20.59270833333333</v>
+        <v>9.672499999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06770836659830544</v>
+        <v>0.0481647123529429</v>
       </c>
       <c r="F58" t="n">
-        <v>53.333</v>
+        <v>40</v>
       </c>
       <c r="G58" t="n">
-        <v>2.3125</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>240.6875</v>
+        <v>236.85</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4441,19 +4441,19 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0197089135789248</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.05475723904902324</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.04053753264160931</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.013904704354464</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -4476,65 +4476,65 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.927534544105184</v>
+        <v>5.197613827123201</v>
       </c>
       <c r="C59" t="n">
-        <v>27.3</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D59" t="n">
-        <v>13.86666666666667</v>
+        <v>14.84333333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>1.107870571726128</v>
+        <v>1.64233988637304</v>
       </c>
       <c r="F59" t="n">
         <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="H59" t="n">
-        <v>234.35</v>
+        <v>243.2413793103448</v>
       </c>
       <c r="I59" t="n">
-        <v>0.158064071384268</v>
+        <v>0.8629615635043201</v>
       </c>
       <c r="J59" t="n">
-        <v>0.204533715665664</v>
+        <v>2.058548664606336</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2681039036088</v>
+        <v>1.85695083959616</v>
       </c>
       <c r="L59" t="n">
-        <v>1.364059966088271</v>
+        <v>2.06456025023424</v>
       </c>
       <c r="M59" t="n">
-        <v>0.68574017453184</v>
+        <v>2.455694600548713</v>
       </c>
       <c r="N59" t="n">
-        <v>0.45370384296384</v>
+        <v>2.3188099343808</v>
       </c>
       <c r="O59" t="n">
-        <v>0.88525258514784</v>
+        <v>0.35108359088544</v>
       </c>
       <c r="P59" t="n">
-        <v>0.7203533933312641</v>
+        <v>0.0022683250421568</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4476417724437121</v>
+        <v>0.004648493537856</v>
       </c>
       <c r="R59" t="n">
-        <v>0.356221399532544</v>
+        <v>0.016228951123392</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0545994109402563</v>
+        <v>0.53335346908032</v>
       </c>
       <c r="T59" t="n">
-        <v>0.09468247363948801</v>
+        <v>0.8300007540619201</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -4545,65 +4545,65 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9245553800683389</v>
+        <v>0.693131876691389</v>
       </c>
       <c r="C60" t="n">
-        <v>22.79497126436782</v>
+        <v>25.70889268340967</v>
       </c>
       <c r="D60" t="n">
-        <v>7.705907453019523</v>
+        <v>8.320715663588176</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3886561457965891</v>
+        <v>0.2214365656507777</v>
       </c>
       <c r="F60" t="n">
-        <v>82.50024999999999</v>
+        <v>77.083375</v>
       </c>
       <c r="G60" t="n">
-        <v>3.381896551724138</v>
+        <v>3.469916013340202</v>
       </c>
       <c r="H60" t="n">
-        <v>207.1423850574712</v>
+        <v>187.63553706459</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06619810862026645</v>
+        <v>0.173341380804937</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1238988671687997</v>
+        <v>0.2391694511514981</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1544037225253658</v>
+        <v>0.2366743071904852</v>
       </c>
       <c r="L60" t="n">
-        <v>0.4466957856370375</v>
+        <v>0.2456716567945626</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2676069628095381</v>
+        <v>0.2364634421246292</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2954705501042907</v>
+        <v>0.2046667076603111</v>
       </c>
       <c r="O60" t="n">
-        <v>0.4518150769335099</v>
+        <v>0.02870465084042727</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1880091366637683</v>
+        <v>0.0001417703151348</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1477853958706275</v>
+        <v>0.0004950492706845</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2125003772881082</v>
+        <v>0.001535751149601564</v>
       </c>
       <c r="S60" t="n">
-        <v>0.02887213996182608</v>
+        <v>0.07264940139748077</v>
       </c>
       <c r="T60" t="n">
-        <v>0.069526579991753</v>
+        <v>0.1291417349553623</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -4614,29 +4614,29 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.308071105489064</v>
+        <v>0.007688723444580706</v>
       </c>
       <c r="C61" t="n">
-        <v>18.23333333333333</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D61" t="n">
-        <v>3.704775132275133</v>
+        <v>2.331685721685722</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08466325810976816</v>
+        <v>0.001883352268064262</v>
       </c>
       <c r="F61" t="n">
-        <v>66.667</v>
+        <v>36.667</v>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="H61" t="n">
-        <v>179.6333333333333</v>
+        <v>98.82142857142857</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4645,28 +4645,28 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.071657479332096</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0635262750487172</v>
+        <v>0.00017615343932928</v>
       </c>
       <c r="M61" t="n">
-        <v>0.07677798896018619</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1000608622153069</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.08791769225413569</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01712602882368</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.08446802073393689</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -4683,65 +4683,65 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.596291625007344</v>
+        <v>1.451527518157389</v>
       </c>
       <c r="C62" t="n">
-        <v>54.7</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D62" t="n">
-        <v>28.63333333333333</v>
+        <v>32.73076923076923</v>
       </c>
       <c r="E62" t="n">
-        <v>0.292984217705424</v>
+        <v>1.11625331215035</v>
       </c>
       <c r="F62" t="n">
-        <v>63.333</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>4.416666666666667</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>237.8333333333333</v>
+        <v>250.9230769230769</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1509353618864112</v>
+        <v>0.442585516314816</v>
       </c>
       <c r="J62" t="n">
-        <v>0.264597145325856</v>
+        <v>0.6624357358905381</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5079906359176319</v>
+        <v>0.5786819270179854</v>
       </c>
       <c r="L62" t="n">
-        <v>0.182636864526816</v>
+        <v>0.619717585862592</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1029785889008291</v>
+        <v>0.668587932398736</v>
       </c>
       <c r="N62" t="n">
-        <v>0.2029679073160704</v>
+        <v>0.9082120176268688</v>
       </c>
       <c r="O62" t="n">
-        <v>0.024832741794336</v>
+        <v>0.27401646117888</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>0.004770822315168</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.010030959739584</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>0.024535657620864</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>0.1988576603983872</v>
       </c>
       <c r="T62" t="n">
-        <v>0.009289647349073298</v>
+        <v>0.4141563084675072</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4752,65 +4752,65 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1955514010253804</v>
+        <v>0.4552606867790098</v>
       </c>
       <c r="C63" t="n">
-        <v>41.00125313283208</v>
+        <v>28.77757448628158</v>
       </c>
       <c r="D63" t="n">
-        <v>18.16320185384095</v>
+        <v>12.19017986017819</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09178577304717235</v>
+        <v>0.2118762242515671</v>
       </c>
       <c r="F63" t="n">
-        <v>46.66657142857143</v>
+        <v>70.0779375</v>
       </c>
       <c r="G63" t="n">
-        <v>2.693609022556391</v>
+        <v>3.363251182297235</v>
       </c>
       <c r="H63" t="n">
-        <v>221.4639097744361</v>
+        <v>188.7815565287962</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04042076002677159</v>
+        <v>0.1011510992733134</v>
       </c>
       <c r="J63" t="n">
-        <v>0.05451817298176109</v>
+        <v>0.09777630640495157</v>
       </c>
       <c r="K63" t="n">
-        <v>0.09875656002496827</v>
+        <v>0.1172705794820247</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07922985723081465</v>
+        <v>0.09566374637055013</v>
       </c>
       <c r="M63" t="n">
-        <v>0.05593487958604949</v>
+        <v>0.1404066528534194</v>
       </c>
       <c r="N63" t="n">
-        <v>0.06295976397784908</v>
+        <v>0.1340637608846455</v>
       </c>
       <c r="O63" t="n">
-        <v>0.008958436359321175</v>
+        <v>0.03470143787192188</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.000298176394698</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.0010459110460176</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.002681160394002</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.02378678979002243</v>
       </c>
       <c r="T63" t="n">
-        <v>0.002518662147156004</v>
+        <v>0.04815983954799065</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4821,29 +4821,29 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0426261420586848</v>
+        <v>0.000712175899914589</v>
       </c>
       <c r="C64" t="n">
-        <v>28.84210526315789</v>
+        <v>18.2</v>
       </c>
       <c r="D64" t="n">
-        <v>8.362280701754386</v>
+        <v>2.71469067969068</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0128132598191136</v>
+        <v>0.0004148131769323461</v>
       </c>
       <c r="F64" t="n">
-        <v>33.333</v>
+        <v>36.667</v>
       </c>
       <c r="G64" t="n">
-        <v>1.266666666666667</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="H64" t="n">
-        <v>197.9</v>
+        <v>86.53333333333333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4852,16 +4852,16 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.005602673291986768</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01170197083766592</v>
+        <v>3.425205764735997e-06</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0231785848833504</v>
+        <v>0.0003586312764455904</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01723278848387956</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4890,65 +4890,65 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.63160375624784</v>
+        <v>2.769605070861888</v>
       </c>
       <c r="C65" t="n">
-        <v>32</v>
+        <v>21.07692307692308</v>
       </c>
       <c r="D65" t="n">
-        <v>7.553081232492997</v>
+        <v>4.248174603174602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3945072694159811</v>
+        <v>0.6463243861869459</v>
       </c>
       <c r="F65" t="n">
-        <v>93.333</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="H65" t="n">
-        <v>173.3333333333333</v>
+        <v>185.9</v>
       </c>
       <c r="I65" t="n">
-        <v>0.543087344646432</v>
+        <v>0.9012807916110277</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5639500550291803</v>
+        <v>0.394116136326528</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4930879862745701</v>
+        <v>0.9894466577530612</v>
       </c>
       <c r="L65" t="n">
-        <v>0.382032771545376</v>
+        <v>1.27405421570448</v>
       </c>
       <c r="M65" t="n">
-        <v>0.81124367487408</v>
+        <v>0.417385788188544</v>
       </c>
       <c r="N65" t="n">
-        <v>0.260193309342624</v>
+        <v>0.8269425346291199</v>
       </c>
       <c r="O65" t="n">
-        <v>0.517573056807072</v>
+        <v>0.6768859011264</v>
       </c>
       <c r="P65" t="n">
-        <v>0.1074780637463232</v>
+        <v>0.29277354036672</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.397385033098032</v>
+        <v>2.34198444163824</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6480326201844097</v>
+        <v>0.285305659770816</v>
       </c>
       <c r="S65" t="n">
-        <v>0.595985803064064</v>
+        <v>0.3608698930704</v>
       </c>
       <c r="T65" t="n">
-        <v>0.5371273118603952</v>
+        <v>0.5740555895314037</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -4959,65 +4959,65 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8688677337398651</v>
+        <v>0.5449602017898297</v>
       </c>
       <c r="C66" t="n">
-        <v>24.50289602372935</v>
+        <v>19.07837451678448</v>
       </c>
       <c r="D66" t="n">
-        <v>5.03552132747686</v>
+        <v>2.895117108150263</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1785313134923562</v>
+        <v>0.09198628772227335</v>
       </c>
       <c r="F66" t="n">
-        <v>76.4285</v>
+        <v>95.55561111111111</v>
       </c>
       <c r="G66" t="n">
-        <v>4.621865244414264</v>
+        <v>6.383148584776937</v>
       </c>
       <c r="H66" t="n">
-        <v>155.6928758877288</v>
+        <v>167.6302271483306</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2927371738778066</v>
+        <v>0.1436289933225222</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3061300435438079</v>
+        <v>0.1230079093974804</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2575992083335124</v>
+        <v>0.1764836191173122</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2047547439009098</v>
+        <v>0.1543512116785402</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2345341686971136</v>
+        <v>0.1119113807102904</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1060617683467776</v>
+        <v>0.1034573189050951</v>
       </c>
       <c r="O66" t="n">
-        <v>0.2124830473779888</v>
+        <v>0.1107658779512721</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0459364946936112</v>
+        <v>0.05988830379877322</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1734357016599984</v>
+        <v>0.2811686230666489</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1968501092418336</v>
+        <v>0.09106401302083952</v>
       </c>
       <c r="S66" t="n">
-        <v>0.2333210944060359</v>
+        <v>0.1001719876441417</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3216936490666864</v>
+        <v>0.1256985019511052</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -5028,65 +5028,65 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.331144000183584</v>
+        <v>0.02042872639556396</v>
       </c>
       <c r="C67" t="n">
-        <v>18.92857142857143</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>3.293558293558294</v>
+        <v>1.428948568637457</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06957155302817368</v>
+        <v>0.001570165340694865</v>
       </c>
       <c r="F67" t="n">
-        <v>56.667</v>
+        <v>86.667</v>
       </c>
       <c r="G67" t="n">
-        <v>3.529411764705882</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>137.9285714285714</v>
+        <v>131.3666666666667</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07924680610230109</v>
+        <v>0.002215696660260509</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1744853196386618</v>
+        <v>0.002766579472436374</v>
       </c>
       <c r="K67" t="n">
-        <v>0.07373089032532364</v>
+        <v>0.003579406285570167</v>
       </c>
       <c r="L67" t="n">
-        <v>0.035353016643168</v>
+        <v>0.001956494552473179</v>
       </c>
       <c r="M67" t="n">
-        <v>0.025811372012832</v>
+        <v>0.002419112735733458</v>
       </c>
       <c r="N67" t="n">
-        <v>0.018471645374112</v>
+        <v>0.002118245107934592</v>
       </c>
       <c r="O67" t="n">
-        <v>0.038655893630592</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>5.382466201728e-05</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.00170526315572928</v>
       </c>
       <c r="R67" t="n">
-        <v>0.012599864063136</v>
+        <v>0.0008461656282067201</v>
       </c>
       <c r="S67" t="n">
-        <v>0.062667285062976</v>
+        <v>0.00184838782518432</v>
       </c>
       <c r="T67" t="n">
-        <v>0.148670240693184</v>
+        <v>0.003173057028796611</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -5097,65 +5097,65 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.687293058342147</v>
+        <v>0.0936640865683656</v>
       </c>
       <c r="C68" t="n">
-        <v>36.26666666666667</v>
+        <v>34.1875</v>
       </c>
       <c r="D68" t="n">
-        <v>19.63333333333333</v>
+        <v>16.515625</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7159467030098948</v>
+        <v>0.0477979309217088</v>
       </c>
       <c r="F68" t="n">
-        <v>73.333</v>
+        <v>56.667</v>
       </c>
       <c r="G68" t="n">
-        <v>4.684210526315789</v>
+        <v>3.294117647058823</v>
       </c>
       <c r="H68" t="n">
-        <v>254.8181818181818</v>
+        <v>248.2941176470588</v>
       </c>
       <c r="I68" t="n">
-        <v>0.730687262424192</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6143623038336</v>
+        <v>0.0025322056903584</v>
       </c>
       <c r="K68" t="n">
-        <v>0.616668776335739</v>
+        <v>0.0022182284952576</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9509227504348321</v>
+        <v>0.0154623574522368</v>
       </c>
       <c r="M68" t="n">
-        <v>0.110952201021984</v>
+        <v>0.0484666615710144</v>
       </c>
       <c r="N68" t="n">
-        <v>0.03945103068312</v>
+        <v>0.0551050365531456</v>
       </c>
       <c r="O68" t="n">
-        <v>1.625912555512896</v>
+        <v>0.0478794834399168</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0747265724339904</v>
+        <v>0.00147283847883648</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.1097431849395504</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1323108055406592</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0.07503647200318081</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.46362606601248</v>
+        <v>0</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -5166,65 +5166,65 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5119797746179653</v>
+        <v>0.06831369616121302</v>
       </c>
       <c r="C69" t="n">
-        <v>28.50276374859708</v>
+        <v>33.18198529411765</v>
       </c>
       <c r="D69" t="n">
-        <v>9.763873110455712</v>
+        <v>13.39915236928104</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2133138161799007</v>
+        <v>0.0306824559533263</v>
       </c>
       <c r="F69" t="n">
-        <v>64.44433333333333</v>
+        <v>55</v>
       </c>
       <c r="G69" t="n">
-        <v>2.910815759938567</v>
+        <v>2.772058823529411</v>
       </c>
       <c r="H69" t="n">
-        <v>188.3803089373265</v>
+        <v>244.1783088235294</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2358565529863681</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2130873164299237</v>
+        <v>0.0012661028451792</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2287045079175198</v>
+        <v>0.0011091142476288</v>
       </c>
       <c r="L69" t="n">
-        <v>0.204583070041498</v>
+        <v>0.008978932254700801</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04311862865475199</v>
+        <v>0.04534564669919423</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0148484482179488</v>
+        <v>0.03967617388517281</v>
       </c>
       <c r="O69" t="n">
-        <v>0.2913234157744362</v>
+        <v>0.0307310276737296</v>
       </c>
       <c r="P69" t="n">
-        <v>0.041951893669556</v>
+        <v>0.00073641923941824</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.04775243862051651</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0507615720868648</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0251494374067104</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1377664424740016</v>
+        <v>0</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -5235,65 +5235,65 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06704506660532596</v>
+        <v>0.04296330575406043</v>
       </c>
       <c r="C70" t="n">
-        <v>24.63636363636364</v>
+        <v>32.1764705882353</v>
       </c>
       <c r="D70" t="n">
-        <v>4.960609857978278</v>
+        <v>10.28267973856209</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01307793248738552</v>
+        <v>0.01356698098494381</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>53.333</v>
       </c>
       <c r="G70" t="n">
-        <v>1.733333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
-        <v>154.75</v>
+        <v>240.0625</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02057005440031016</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03685521402855936</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.019042513001568</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0016392056159808</v>
+        <v>0.0024955070571648</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.04222463182737408</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>0.0242473112172</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.0135825719075424</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0144942125575104</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0141045080240736</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.000570867627456</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.0061898361319872</v>
+        <v>0</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -5304,65 +5304,65 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.568822771033792</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D71" t="n">
-        <v>4.23138888888889</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6072631571235937</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>6.966666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
-        <v>184.1851851851852</v>
+        <v>159</v>
       </c>
       <c r="I71" t="n">
-        <v>0.688140148639104</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J71" t="n">
-        <v>0.342275918918976</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K71" t="n">
-        <v>1.02375594523776</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L71" t="n">
-        <v>1.18949444838756</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M71" t="n">
-        <v>0.4099126119745746</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N71" t="n">
-        <v>0.3639281125032</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5423242460832</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.45995620269312</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.59418560419648</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.24098769130464</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3501661250556</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0.44323793646048</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -5373,65 +5373,65 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6186911611634733</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C72" t="n">
-        <v>18.85555555555556</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D72" t="n">
-        <v>3.222521711676124</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E72" t="n">
-        <v>0.122796900642108</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F72" t="n">
-        <v>95.833375</v>
+        <v>50</v>
       </c>
       <c r="G72" t="n">
-        <v>5.706445868945869</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
-        <v>163.5177706552707</v>
+        <v>159</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1609106495341006</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1455748466296022</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2222378384222573</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2113576838611647</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1433187697949126</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N72" t="n">
-        <v>0.08686815260648824</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1067693723630957</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0855181564916558</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.4639044557274479</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.06410183390636638</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.08654291373303633</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1228980311517685</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -5442,65 +5442,65 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08772783799174634</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C73" t="n">
-        <v>17.56666666666667</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D73" t="n">
-        <v>2.354682077182078</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01137236432559072</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F73" t="n">
-        <v>86.667</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>4.266666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
-        <v>147.5185185185185</v>
+        <v>159</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01639368721017219</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03450650150416901</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02482610108928197</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01389971525923249</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M73" t="n">
-        <v>0.01605932188551939</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N73" t="n">
-        <v>0.006961555961429777</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.000978630218496</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0183493165968</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.00319359661302529</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.005155983208304655</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.02666882478368486</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -5511,50 +5511,50 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.66439628271616</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C74" t="n">
-        <v>20.07407407407407</v>
+        <v>68.5</v>
       </c>
       <c r="D74" t="n">
-        <v>7.573456790123457</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5570731700242987</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F74" t="n">
-        <v>90</v>
+        <v>26.667</v>
       </c>
       <c r="G74" t="n">
-        <v>2.666666666666667</v>
+        <v>2.375</v>
       </c>
       <c r="H74" t="n">
-        <v>115.4074074074074</v>
+        <v>173</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8629615635043201</v>
+        <v>0.3866690322055024</v>
       </c>
       <c r="J74" t="n">
-        <v>0.63803195138016</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3832968355776</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L74" t="n">
-        <v>0.61898361319872</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N74" t="n">
-        <v>0.05137808647104</v>
+        <v>0.03668395374032331</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.006948274551321956</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5566,10 +5566,10 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.41661686444544</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0.74158423223808</v>
+        <v>0.0434634145789544</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -5580,50 +5580,50 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.66439628271616</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C75" t="n">
-        <v>20.07407407407407</v>
+        <v>68.5</v>
       </c>
       <c r="D75" t="n">
-        <v>7.573456790123457</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5570731700242987</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F75" t="n">
-        <v>90</v>
+        <v>26.667</v>
       </c>
       <c r="G75" t="n">
-        <v>2.666666666666667</v>
+        <v>2.375</v>
       </c>
       <c r="H75" t="n">
-        <v>115.4074074074074</v>
+        <v>173</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8629615635043201</v>
+        <v>0.3866690322055024</v>
       </c>
       <c r="J75" t="n">
-        <v>0.63803195138016</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3832968355776</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L75" t="n">
-        <v>0.61898361319872</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05137808647104</v>
+        <v>0.03668395374032331</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.006948274551321956</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.41661686444544</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0.74158423223808</v>
+        <v>0.0434634145789544</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -5649,67 +5649,1516 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.275791284342316</v>
+      </c>
+      <c r="C76" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>34.27291666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7306720040936679</v>
+      </c>
+      <c r="F76" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H76" t="n">
+        <v>173</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3866690322055024</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9718491266070073</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2536155162311629</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.4433398771082422</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2909296379300391</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.03668395374032331</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.006948274551321956</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.0434634145789544</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4.671376215023774</v>
+      </c>
+      <c r="C77" t="n">
+        <v>31.88235294117647</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16.03205128205128</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.099401679021591</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12</v>
+      </c>
+      <c r="H77" t="n">
+        <v>234.35</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.308165124762634</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.36379974025888</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.80312617757888</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.6496909397504</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.755973994324073</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.49336630356184</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.31830508545856</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3.8900551185216</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5994110088288001</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.31010345048592</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.31642377064704</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.7217397861408</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6415493477240778</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20.04183516023562</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.129764671006438</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2430676621959964</v>
+      </c>
+      <c r="F78" t="n">
+        <v>92.69295238095238</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.662940843888395</v>
+      </c>
+      <c r="H78" t="n">
+        <v>184.5821691364433</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.1374389363725047</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1519251083250887</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1594151631082377</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.242228764569999</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.1902963524688237</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1893972628726752</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.2132316954759</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.2098031356284253</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0775434045328425</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.06164969765960165</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.03613123646826556</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.09205326241545049</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0008942233621507201</v>
+      </c>
+      <c r="C79" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.490289364774659</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0001043556519680609</v>
+      </c>
+      <c r="F79" t="n">
+        <v>56.667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="H79" t="n">
+        <v>141</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0002270727928854</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0002492931714484548</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0001653597236841035</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0001483514444856436</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.240391560347805</v>
+      </c>
+      <c r="C80" t="n">
+        <v>49.45454545454545</v>
+      </c>
+      <c r="D80" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4010855580459909</v>
+      </c>
+      <c r="F80" t="n">
+        <v>42.857</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="H80" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.442585516314816</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2627744465439072</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.488010268956672</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.619717585862592</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.489280158168768</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.19511439981264</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.012416370897168</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.0550479497904</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8888063288020698</v>
+      </c>
+      <c r="C81" t="n">
+        <v>45.97727272727273</v>
+      </c>
+      <c r="D81" t="n">
+        <v>17.66897546897547</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3356374987034405</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39.762</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2.943181818181818</v>
+      </c>
+      <c r="H81" t="n">
+        <v>212.9431818181818</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.2561197610581344</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2268342517696416</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4664192397611041</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.4017331415271552</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.2976614487973152</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1851164688429303</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.006208185448584</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.0283435777031904</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5372210972563344</v>
+      </c>
+      <c r="C82" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>14.56017316017316</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.27018943936089</v>
+      </c>
+      <c r="F82" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H82" t="n">
+        <v>208.6363636363636</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.06965400580145281</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.190894056995376</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4448282105655361</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.1837486971917184</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.1060427394258624</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1751185378732205</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7.07610812361264</v>
+      </c>
+      <c r="C83" t="n">
+        <v>30.38888888888889</v>
+      </c>
+      <c r="D83" t="n">
+        <v>14.575</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.277388803750496</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.791871930066176</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.7541450434816</v>
+      </c>
+      <c r="K83" t="n">
+        <v>5.922180767228545</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.75331495534984</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3.31538170688256</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.260193309342624</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.517573056807072</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.181291247976384</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.397385033098032</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.285305659770816</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.595985803064064</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.07526995257248</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.251986417932249</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21.83234970329798</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.09205988060903</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5324094893814392</v>
+      </c>
+      <c r="F84" t="n">
+        <v>85.0741</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.262914486535176</v>
+      </c>
+      <c r="H84" t="n">
+        <v>161.2938770903426</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3392872804228717</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4500878414762122</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.7569760675516033</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.3918050090729561</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.488541057404882</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.07234674543946121</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1049078545824799</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0364042612238764</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.1088664627478071</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0923794967205199</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.1505592649731554</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.2808105001479628</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.06626566177494682</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18.23333333333333</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.529592689016064</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.005554801910710414</v>
+      </c>
+      <c r="F85" t="n">
+        <v>60</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H85" t="n">
+        <v>137.9285714285714</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00864497469263904</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01440187816092113</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01231728458754528</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0094697764736652</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.00912633843136176</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.00646033564081836</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.01383138122672972</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.687293058342147</v>
+      </c>
+      <c r="C86" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="D86" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7159467030098948</v>
+      </c>
+      <c r="F86" t="n">
+        <v>93.333</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.714285714285714</v>
+      </c>
+      <c r="H86" t="n">
+        <v>254.8181818181818</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.730687262424192</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.6143623038336</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.616668776335739</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.9509227504348321</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.1496154343792149</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.1597332475506903</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.625912555512896</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.246370157506368</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.62815827149712</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.6480326201844097</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.215288861766935</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.5371273118603952</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6041203937194749</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.41495911495912</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.835321431025074</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2308697180511848</v>
+      </c>
+      <c r="F87" t="n">
+        <v>70.41666666666667</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.080836021277198</v>
+      </c>
+      <c r="H87" t="n">
+        <v>178.8026368375633</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2492708595789629</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.2321496957861343</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.240290774028888</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2365456548656412</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.07525945867510188</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.03774283673376765</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.3475583586917741</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.06929038593805122</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1716272973840239</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1491944203441361</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.06121646333689745</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.2155293652401629</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1263356008088649</v>
+      </c>
+      <c r="C88" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.222556907378336</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0373077934352873</v>
+      </c>
+      <c r="F88" t="n">
+        <v>50</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.388888888888889</v>
+      </c>
+      <c r="H88" t="n">
+        <v>151.4117647058823</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0237562485539904</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.055333383604128</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0144266404709952</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.005627123756352</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.01798257492241865</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.0006569055341654489</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0061898361319872</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0275617294208</v>
+      </c>
+      <c r="C89" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.72452380952381</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3742530079065362</v>
+      </c>
+      <c r="F89" t="n">
+        <v>96.667</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.551724137931035</v>
+      </c>
+      <c r="H89" t="n">
+        <v>202</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.510396435204768</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.383623045650432</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.5589295934444751</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.2260880462280384</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4537688131366802</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.47166481423584</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.558145434615552</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.5251574410004161</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.7365823444546561</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.4341489083061991</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.365579550996913</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.400555387243369</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5439320792305596</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25.03781475615576</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.525719694202488</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.153674458930093</v>
+      </c>
+      <c r="F90" t="n">
+        <v>75</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.054280891509133</v>
+      </c>
+      <c r="H90" t="n">
+        <v>169.337746647353</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1774593499974097</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1362413055891147</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1614019193746688</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.07810621491135818</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.1777939539514386</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1693659405367685</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.2265020027328365</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.2294700658567574</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.2159870214676699</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1914899024645615</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.1581824384082061</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.1007439758162333</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2074422046750341</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.89655172413793</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.531450845751049</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03068285957699262</v>
+      </c>
+      <c r="F91" t="n">
+        <v>50</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>149.4347826086957</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01723612472326083</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0256471019404416</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.01823616247778647</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.01961777191846597</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.05775451476468716</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.040918976010864</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0072296307391392</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.0602224570706976</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0095090236230528</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.07187304982189249</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.0569562787164672</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.01279375517517557</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.568822771033792</v>
+      </c>
+      <c r="C92" t="n">
+        <v>21</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.23138888888889</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6072631571235937</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="H92" t="n">
+        <v>182.8666666666667</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.688140148639104</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.342275918918976</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.02375594523776</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.18949444838756</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4099126119745746</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.3639281125032</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.5423242460832</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.45995620269312</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.59418560419648</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.24098769130464</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.3501661250556</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.44323793646048</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5141253919089889</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.42714285714286</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.874260483913845</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.09907746862094578</v>
+      </c>
+      <c r="F93" t="n">
+        <v>98.66670000000001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.427087912087911</v>
+      </c>
+      <c r="H93" t="n">
+        <v>162.5678937728938</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1273932062610272</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1008930044847248</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.1779890843272263</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.179236956637658</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.1065518905215657</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.08156659680279971</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.08907943641938876</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.07444138327781705</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3578417974873584</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.05493981418034975</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.0678534072104954</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.09940646813289149</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.05180401896313676</v>
+      </c>
+      <c r="C94" t="n">
+        <v>17.76666666666667</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.080285871535872</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.006347233442155602</v>
+      </c>
+      <c r="F94" t="n">
+        <v>86.667</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>139.8666666666667</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0107399507396719</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01670413434627053</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.01120475440148336</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.009329713621548177</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.01541656979088892</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0005541901374824648</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.01159923214026346</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.009562587317011817</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.003633684583469978</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.01019888045220019</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B95" t="n">
         <v>1.66439628271616</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C95" t="n">
         <v>20.07407407407407</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D95" t="n">
         <v>7.573456790123457</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E95" t="n">
         <v>0.5570731700242987</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F95" t="n">
+        <v>100</v>
+      </c>
+      <c r="G95" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>115.4074074074074</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.8629615635043201</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.63803195138016</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.3832968355776</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.61898361319872</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.01287388052431488</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.05137808647104</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.0001712602882368</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.0155398323445344</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.41661686444544</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.74158423223808</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9157560359888147</v>
+      </c>
+      <c r="C96" t="n">
+        <v>19.1537037037037</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.125104972188305</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2902912320224015</v>
+      </c>
+      <c r="F96" t="n">
+        <v>95</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.633333333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>110.8537037037037</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.4548664760515428</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.3418270734804177</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.202593020583933</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.3191990655743646</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.00643694026215744</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0300602582114688</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>8.56301441184e-05</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.0077699161722672</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.2313847903091237</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.3991382423384244</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1671157892614694</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18.23333333333333</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.676753154253155</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02350929402050434</v>
+      </c>
+      <c r="F97" t="n">
         <v>90</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G97" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>115.4074074074074</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.8629615635043201</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.63803195138016</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.3832968355776</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.61898361319872</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.05137808647104</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.41661686444544</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.74158423223808</v>
-      </c>
-      <c r="U76" t="inlineStr">
+      <c r="H97" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0467713885987656</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.04562219558067537</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.021889205590266</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.01941451795000911</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.0087424299518976</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.04615271617280742</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.0566922524387688</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>min</t>
         </is>
